--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3262029.603343248</v>
+        <v>-3263915.212614542</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4603496.861839563</v>
+        <v>4603496.861839557</v>
       </c>
     </row>
     <row r="8">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>322.9080803277992</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>305.4471304353261</v>
+        <v>305.4471304353262</v>
       </c>
       <c r="D11" t="n">
-        <v>235.617204155853</v>
+        <v>294.8572802850016</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>347.0502844060301</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>352.7545617465137</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>251.7681139687395</v>
       </c>
       <c r="I11" t="n">
-        <v>45.69424580880683</v>
+        <v>45.6942458088069</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.15728935994468</v>
+        <v>87.15728935994493</v>
       </c>
       <c r="T11" t="n">
-        <v>151.3527190482556</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>191.3020984175198</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>267.9264971344535</v>
@@ -1433,10 +1433,10 @@
         <v>289.4152073817316</v>
       </c>
       <c r="X11" t="n">
-        <v>309.9053393427877</v>
+        <v>291.0673782063023</v>
       </c>
       <c r="Y11" t="n">
-        <v>326.4121773203722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I12" t="n">
-        <v>39.24545706819393</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.719611937703164</v>
+        <v>9.719611937703192</v>
       </c>
       <c r="S12" t="n">
         <v>144.627090920151</v>
@@ -1528,13 +1528,13 @@
         <v>120.0062188462559</v>
       </c>
       <c r="C13" t="n">
-        <v>107.4210597629464</v>
+        <v>107.4210597629465</v>
       </c>
       <c r="D13" t="n">
-        <v>22.49388122529126</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>86.60820131088781</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.55887399069131</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>142.9089755307738</v>
@@ -1582,13 +1582,13 @@
         <v>162.9020530534019</v>
       </c>
       <c r="U13" t="n">
-        <v>226.4266581266923</v>
+        <v>226.4266581266921</v>
       </c>
       <c r="V13" t="n">
         <v>192.3118819881466</v>
       </c>
       <c r="W13" t="n">
-        <v>226.6972370009096</v>
+        <v>225.1417909060037</v>
       </c>
       <c r="X13" t="n">
         <v>165.8838940533558</v>
@@ -1607,25 +1607,25 @@
         <v>322.9080803277992</v>
       </c>
       <c r="C14" t="n">
-        <v>305.4471304353261</v>
+        <v>268.658113536782</v>
       </c>
       <c r="D14" t="n">
-        <v>235.6172041558531</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>347.0502844060301</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>251.7681139687395</v>
       </c>
       <c r="I14" t="n">
-        <v>45.69424580880683</v>
+        <v>45.6942458088069</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.15728935994493</v>
+        <v>87.15728935994473</v>
       </c>
       <c r="T14" t="n">
-        <v>151.3527190482553</v>
+        <v>151.3527190482552</v>
       </c>
       <c r="U14" t="n">
-        <v>191.3020984175199</v>
+        <v>191.3020984175198</v>
       </c>
       <c r="V14" t="n">
         <v>267.9264971344535</v>
@@ -1673,7 +1673,7 @@
         <v>309.9053393427877</v>
       </c>
       <c r="Y14" t="n">
-        <v>326.4121773203722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I15" t="n">
-        <v>39.24545706819393</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.719611937703164</v>
+        <v>9.719611937703192</v>
       </c>
       <c r="S15" t="n">
         <v>144.627090920151</v>
@@ -1765,7 +1765,7 @@
         <v>120.0062188462559</v>
       </c>
       <c r="C16" t="n">
-        <v>22.97090435761354</v>
+        <v>107.4210597629465</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>22.49388122529061</v>
       </c>
       <c r="G16" t="n">
-        <v>106.9440366306246</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.55887399069131</v>
+        <v>62.5588739906913</v>
       </c>
       <c r="S16" t="n">
         <v>142.9089755307738</v>
@@ -1847,10 +1847,10 @@
         <v>224.8214038236701</v>
       </c>
       <c r="D17" t="n">
-        <v>214.2315536733455</v>
+        <v>214.2315536733452</v>
       </c>
       <c r="E17" t="n">
-        <v>241.4788821249243</v>
+        <v>241.4788821249244</v>
       </c>
       <c r="F17" t="n">
         <v>266.424557794374</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.531562748288943</v>
+        <v>6.531562748288664</v>
       </c>
       <c r="T17" t="n">
-        <v>70.72699243659925</v>
+        <v>70.72699243659964</v>
       </c>
       <c r="U17" t="n">
-        <v>110.6763718058629</v>
+        <v>110.6763718058643</v>
       </c>
       <c r="V17" t="n">
-        <v>187.3007705227974</v>
+        <v>187.3007705227975</v>
       </c>
       <c r="W17" t="n">
         <v>208.7894807700756</v>
@@ -1910,7 +1910,7 @@
         <v>229.2796127311316</v>
       </c>
       <c r="Y17" t="n">
-        <v>245.7864507087161</v>
+        <v>245.7864507087162</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I18" t="n">
-        <v>39.24545706819393</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.719611937703164</v>
+        <v>9.719611937703192</v>
       </c>
       <c r="S18" t="n">
         <v>144.627090920151</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.60930463958184</v>
+        <v>39.38049223459987</v>
       </c>
       <c r="C19" t="n">
-        <v>26.79533315129038</v>
+        <v>26.79533315129041</v>
       </c>
       <c r="D19" t="n">
-        <v>8.163985070874901</v>
+        <v>8.163985070874929</v>
       </c>
       <c r="E19" t="n">
-        <v>5.982474699231716</v>
+        <v>5.982474699231744</v>
       </c>
       <c r="F19" t="n">
-        <v>4.96956007559379</v>
+        <v>4.969560075593819</v>
       </c>
       <c r="G19" t="n">
-        <v>26.31831001896852</v>
+        <v>26.31831001896855</v>
       </c>
       <c r="H19" t="n">
-        <v>10.91827181896195</v>
+        <v>10.91827181896198</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>62.28324891911773</v>
+        <v>202.7347368664552</v>
       </c>
       <c r="T19" t="n">
-        <v>82.27632644174579</v>
+        <v>82.27632644174584</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2524194623734</v>
+        <v>145.800931515036</v>
       </c>
       <c r="V19" t="n">
-        <v>111.6861553764905</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>146.0715103892535</v>
+        <v>146.0715103892536</v>
       </c>
       <c r="X19" t="n">
-        <v>85.2581674416997</v>
+        <v>85.25816744169973</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>89.3619778097388</v>
       </c>
     </row>
     <row r="20">
@@ -2087,10 +2087,10 @@
         <v>214.2315536733455</v>
       </c>
       <c r="E20" t="n">
-        <v>241.4788821249243</v>
+        <v>241.4788821249244</v>
       </c>
       <c r="F20" t="n">
-        <v>266.4245577943731</v>
+        <v>266.424557794374</v>
       </c>
       <c r="G20" t="n">
         <v>272.1288351348576</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.531562748288614</v>
+        <v>6.531562748288664</v>
       </c>
       <c r="T20" t="n">
-        <v>70.72699243659964</v>
+        <v>70.72699243659928</v>
       </c>
       <c r="U20" t="n">
-        <v>110.6763718058634</v>
+        <v>110.6763718058643</v>
       </c>
       <c r="V20" t="n">
-        <v>187.3007705227974</v>
+        <v>187.3007705227975</v>
       </c>
       <c r="W20" t="n">
         <v>208.7894807700756</v>
@@ -2147,7 +2147,7 @@
         <v>229.2796127311316</v>
       </c>
       <c r="Y20" t="n">
-        <v>245.7864507087161</v>
+        <v>245.7864507087162</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I21" t="n">
-        <v>39.24545706819393</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.719611937703164</v>
+        <v>9.719611937703192</v>
       </c>
       <c r="S21" t="n">
         <v>144.627090920151</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>39.38049223459984</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>26.79533315129041</v>
       </c>
       <c r="D22" t="n">
-        <v>8.163985070874901</v>
+        <v>8.163985070874929</v>
       </c>
       <c r="E22" t="n">
-        <v>5.982474699231716</v>
+        <v>5.982474699231744</v>
       </c>
       <c r="F22" t="n">
-        <v>4.96956007559379</v>
+        <v>4.969560075593819</v>
       </c>
       <c r="G22" t="n">
-        <v>26.31831001896852</v>
+        <v>26.31831001896855</v>
       </c>
       <c r="H22" t="n">
-        <v>10.91827181896195</v>
+        <v>10.91827181896198</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.3846353263727</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>62.28324891911773</v>
+        <v>62.28324891911777</v>
       </c>
       <c r="T22" t="n">
-        <v>82.27632644174579</v>
+        <v>82.27632644174584</v>
       </c>
       <c r="U22" t="n">
-        <v>145.800931515036</v>
+        <v>157.0297439200177</v>
       </c>
       <c r="V22" t="n">
-        <v>111.6861553764905</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>146.0715103892535</v>
+        <v>146.0715103892536</v>
       </c>
       <c r="X22" t="n">
-        <v>85.2581674416997</v>
+        <v>85.25816744169973</v>
       </c>
       <c r="Y22" t="n">
-        <v>107.4288304307042</v>
+        <v>78.13316540475736</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>214.2315536733455</v>
       </c>
       <c r="E23" t="n">
-        <v>241.4788821249243</v>
+        <v>241.4788821249244</v>
       </c>
       <c r="F23" t="n">
         <v>266.424557794374</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.531562748288614</v>
+        <v>6.531562748288664</v>
       </c>
       <c r="T23" t="n">
-        <v>70.72699243659964</v>
+        <v>70.72699243659928</v>
       </c>
       <c r="U23" t="n">
-        <v>110.6763718058634</v>
+        <v>110.6763718058638</v>
       </c>
       <c r="V23" t="n">
-        <v>187.3007705227974</v>
+        <v>187.3007705227975</v>
       </c>
       <c r="W23" t="n">
         <v>208.7894807700756</v>
@@ -2384,7 +2384,7 @@
         <v>229.2796127311316</v>
       </c>
       <c r="Y23" t="n">
-        <v>245.7864507087161</v>
+        <v>245.7864507087162</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I24" t="n">
-        <v>39.24545706819393</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.719611937703164</v>
+        <v>9.719611937703192</v>
       </c>
       <c r="S24" t="n">
         <v>144.627090920151</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.38049223459984</v>
+        <v>39.38049223459987</v>
       </c>
       <c r="C25" t="n">
-        <v>26.79533315129038</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>37.45965009682175</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>5.982474699231716</v>
+        <v>5.982474699231744</v>
       </c>
       <c r="F25" t="n">
-        <v>4.96956007559379</v>
+        <v>4.969560075593819</v>
       </c>
       <c r="G25" t="n">
-        <v>26.31831001896852</v>
+        <v>26.31831001896855</v>
       </c>
       <c r="H25" t="n">
-        <v>10.91827181896195</v>
+        <v>10.91827181896198</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.3846353263727</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>62.28324891911773</v>
+        <v>73.51206132409897</v>
       </c>
       <c r="T25" t="n">
-        <v>82.27632644174579</v>
+        <v>82.27632644174584</v>
       </c>
       <c r="U25" t="n">
         <v>145.800931515036</v>
       </c>
       <c r="V25" t="n">
-        <v>111.6861553764905</v>
+        <v>111.6861553764906</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>146.0715103892536</v>
       </c>
       <c r="X25" t="n">
-        <v>85.2581674416997</v>
+        <v>85.25816744169973</v>
       </c>
       <c r="Y25" t="n">
-        <v>78.13316540475734</v>
+        <v>78.13316540475736</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>230.9681486927647</v>
       </c>
       <c r="I26" t="n">
-        <v>24.89428053283214</v>
+        <v>24.89428053283217</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.35732408397</v>
+        <v>66.35732408397001</v>
       </c>
       <c r="T26" t="n">
-        <v>130.5527537722805</v>
+        <v>130.5527537722807</v>
       </c>
       <c r="U26" t="n">
-        <v>170.5021331415456</v>
+        <v>170.5021331415452</v>
       </c>
       <c r="V26" t="n">
         <v>247.1265318584788</v>
@@ -2652,7 +2652,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I27" t="n">
-        <v>39.24545706819392</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.719611937703149</v>
+        <v>9.719611937703178</v>
       </c>
       <c r="S27" t="n">
         <v>144.627090920151</v>
@@ -2725,13 +2725,13 @@
         <v>64.79532141127518</v>
       </c>
       <c r="G28" t="n">
-        <v>86.14407135464991</v>
+        <v>86.14407135465011</v>
       </c>
       <c r="H28" t="n">
-        <v>70.74403315464333</v>
+        <v>70.74403315464335</v>
       </c>
       <c r="I28" t="n">
-        <v>38.10049335886225</v>
+        <v>38.10049335886227</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.75890871471732</v>
+        <v>41.75890871471687</v>
       </c>
       <c r="S28" t="n">
         <v>122.1090102547991</v>
@@ -2810,7 +2810,7 @@
         <v>230.9681486927647</v>
       </c>
       <c r="I29" t="n">
-        <v>24.89428053283216</v>
+        <v>24.8942805328322</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.35732408397001</v>
+        <v>66.35732408396981</v>
       </c>
       <c r="T29" t="n">
-        <v>130.5527537722806</v>
+        <v>130.5527537722807</v>
       </c>
       <c r="U29" t="n">
         <v>170.5021331415456</v>
@@ -2889,7 +2889,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I30" t="n">
-        <v>39.24545706819393</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.719611937703164</v>
+        <v>9.719611937703192</v>
       </c>
       <c r="S30" t="n">
         <v>144.627090920151</v>
@@ -2962,13 +2962,13 @@
         <v>64.79532141127518</v>
       </c>
       <c r="G31" t="n">
-        <v>86.14407135464991</v>
+        <v>86.14407135464992</v>
       </c>
       <c r="H31" t="n">
-        <v>70.74403315464359</v>
+        <v>70.74403315464326</v>
       </c>
       <c r="I31" t="n">
-        <v>38.10049335886242</v>
+        <v>38.10049335886227</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.75890871471665</v>
+        <v>41.7589087147171</v>
       </c>
       <c r="S31" t="n">
         <v>122.1090102547991</v>
@@ -3016,7 +3016,7 @@
         <v>145.0839287773811</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.9589267404387</v>
+        <v>137.958926740438</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>301.3046434606057</v>
       </c>
       <c r="F32" t="n">
-        <v>326.2503191300554</v>
+        <v>326.2503191300553</v>
       </c>
       <c r="G32" t="n">
         <v>331.9545964705391</v>
@@ -3047,7 +3047,7 @@
         <v>230.9681486927648</v>
       </c>
       <c r="I32" t="n">
-        <v>24.89428053283217</v>
+        <v>24.8942805328322</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,16 +3083,16 @@
         <v>130.5527537722807</v>
       </c>
       <c r="U32" t="n">
-        <v>170.5021331415447</v>
+        <v>170.5021331415456</v>
       </c>
       <c r="V32" t="n">
-        <v>247.1265318584789</v>
+        <v>247.1265318584788</v>
       </c>
       <c r="W32" t="n">
-        <v>268.615242105757</v>
+        <v>268.6152421057569</v>
       </c>
       <c r="X32" t="n">
-        <v>289.105374066813</v>
+        <v>289.1053740668129</v>
       </c>
       <c r="Y32" t="n">
         <v>305.6122120443976</v>
@@ -3126,7 +3126,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I33" t="n">
-        <v>39.24545706819393</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.719611937703164</v>
+        <v>9.719611937703192</v>
       </c>
       <c r="S33" t="n">
         <v>144.627090920151</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.20625357028125</v>
+        <v>99.20625357028123</v>
       </c>
       <c r="C34" t="n">
-        <v>86.62109448697178</v>
+        <v>86.62109448697177</v>
       </c>
       <c r="D34" t="n">
-        <v>67.98974640655631</v>
+        <v>67.98974640655629</v>
       </c>
       <c r="E34" t="n">
-        <v>65.80823603491312</v>
+        <v>65.80823603491311</v>
       </c>
       <c r="F34" t="n">
-        <v>64.7953214112752</v>
+        <v>64.79532141127518</v>
       </c>
       <c r="G34" t="n">
-        <v>86.14407135465025</v>
+        <v>86.14407135464991</v>
       </c>
       <c r="H34" t="n">
-        <v>70.74403315464336</v>
+        <v>70.74403315464335</v>
       </c>
       <c r="I34" t="n">
-        <v>38.10049335886233</v>
+        <v>38.10049335886227</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.75890871471665</v>
+        <v>41.75890871471687</v>
       </c>
       <c r="S34" t="n">
         <v>122.1090102547991</v>
@@ -3244,16 +3244,16 @@
         <v>205.6266928507174</v>
       </c>
       <c r="V34" t="n">
-        <v>171.511916712172</v>
+        <v>171.5119167121719</v>
       </c>
       <c r="W34" t="n">
-        <v>205.897271724935</v>
+        <v>205.8972717249349</v>
       </c>
       <c r="X34" t="n">
         <v>145.0839287773811</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.9589267404388</v>
+        <v>137.9589267404387</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>326.2503191300553</v>
       </c>
       <c r="G35" t="n">
-        <v>331.9545964705391</v>
+        <v>331.954596470539</v>
       </c>
       <c r="H35" t="n">
         <v>230.9681486927648</v>
       </c>
       <c r="I35" t="n">
-        <v>24.89428053283216</v>
+        <v>24.89428053283218</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.35732408397001</v>
+        <v>66.35732408397003</v>
       </c>
       <c r="T35" t="n">
         <v>130.5527537722805</v>
@@ -3332,7 +3332,7 @@
         <v>289.1053740668129</v>
       </c>
       <c r="Y35" t="n">
-        <v>305.6122120443976</v>
+        <v>305.6122120443975</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I36" t="n">
-        <v>39.24545706819393</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.719611937703164</v>
+        <v>9.719611937703192</v>
       </c>
       <c r="S36" t="n">
         <v>144.627090920151</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.20625357028123</v>
+        <v>99.20625357028122</v>
       </c>
       <c r="C37" t="n">
-        <v>86.62109448697177</v>
+        <v>86.62109448697176</v>
       </c>
       <c r="D37" t="n">
-        <v>67.98974640655629</v>
+        <v>67.98974640655628</v>
       </c>
       <c r="E37" t="n">
-        <v>65.80823603491311</v>
+        <v>65.80823603491309</v>
       </c>
       <c r="F37" t="n">
-        <v>64.79532141127518</v>
+        <v>64.79532141127517</v>
       </c>
       <c r="G37" t="n">
-        <v>86.14407135464992</v>
+        <v>86.14407135464991</v>
       </c>
       <c r="H37" t="n">
-        <v>70.74403315464335</v>
+        <v>70.74403315464333</v>
       </c>
       <c r="I37" t="n">
-        <v>38.10049335886225</v>
+        <v>38.10049335886227</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.7589087147171</v>
+        <v>41.75890871471732</v>
       </c>
       <c r="S37" t="n">
         <v>122.1090102547991</v>
@@ -3478,7 +3478,7 @@
         <v>142.1020877774272</v>
       </c>
       <c r="U37" t="n">
-        <v>205.6266928507174</v>
+        <v>205.6266928507173</v>
       </c>
       <c r="V37" t="n">
         <v>171.5119167121719</v>
@@ -3512,10 +3512,10 @@
         <v>301.3046434606057</v>
       </c>
       <c r="F38" t="n">
-        <v>326.2503191300554</v>
+        <v>326.2503191300553</v>
       </c>
       <c r="G38" t="n">
-        <v>331.9545964705391</v>
+        <v>331.954596470539</v>
       </c>
       <c r="H38" t="n">
         <v>230.9681486927648</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.35732408397004</v>
+        <v>66.35732408397003</v>
       </c>
       <c r="T38" t="n">
-        <v>130.5527537722801</v>
+        <v>130.5527537722807</v>
       </c>
       <c r="U38" t="n">
-        <v>170.5021331415461</v>
+        <v>170.5021331415452</v>
       </c>
       <c r="V38" t="n">
-        <v>247.1265318584789</v>
+        <v>247.1265318584788</v>
       </c>
       <c r="W38" t="n">
-        <v>268.615242105757</v>
+        <v>268.6152421057569</v>
       </c>
       <c r="X38" t="n">
-        <v>289.105374066813</v>
+        <v>289.1053740668129</v>
       </c>
       <c r="Y38" t="n">
-        <v>305.6122120443976</v>
+        <v>305.6122120443975</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I39" t="n">
-        <v>39.24545706819393</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.719611937703164</v>
+        <v>9.719611937703192</v>
       </c>
       <c r="S39" t="n">
         <v>144.627090920151</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.20625357028126</v>
+        <v>99.20625357028122</v>
       </c>
       <c r="C40" t="n">
-        <v>86.6210944869718</v>
+        <v>86.62109448697176</v>
       </c>
       <c r="D40" t="n">
-        <v>67.98974640655632</v>
+        <v>67.98974640655628</v>
       </c>
       <c r="E40" t="n">
-        <v>65.80823603491314</v>
+        <v>65.80823603491309</v>
       </c>
       <c r="F40" t="n">
-        <v>64.79532141127521</v>
+        <v>64.79532141127517</v>
       </c>
       <c r="G40" t="n">
-        <v>86.14407135465002</v>
+        <v>86.14407135464977</v>
       </c>
       <c r="H40" t="n">
-        <v>70.74403315464338</v>
+        <v>70.74403315464333</v>
       </c>
       <c r="I40" t="n">
-        <v>38.10049335886228</v>
+        <v>38.10049335886242</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.7589087147162</v>
+        <v>41.75890871471732</v>
       </c>
       <c r="S40" t="n">
-        <v>122.1090102547992</v>
+        <v>122.1090102547991</v>
       </c>
       <c r="T40" t="n">
         <v>142.1020877774272</v>
       </c>
       <c r="U40" t="n">
-        <v>205.6266928507174</v>
+        <v>205.6266928507173</v>
       </c>
       <c r="V40" t="n">
-        <v>171.511916712172</v>
+        <v>171.5119167121719</v>
       </c>
       <c r="W40" t="n">
-        <v>205.897271724935</v>
+        <v>205.8972717249349</v>
       </c>
       <c r="X40" t="n">
         <v>145.0839287773811</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.9589267404388</v>
+        <v>137.9589267404387</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3749,13 @@
         <v>301.3046434606057</v>
       </c>
       <c r="F41" t="n">
-        <v>326.2503191300554</v>
+        <v>326.2503191300553</v>
       </c>
       <c r="G41" t="n">
-        <v>331.9545964705391</v>
+        <v>331.954596470539</v>
       </c>
       <c r="H41" t="n">
-        <v>230.9681486927648</v>
+        <v>230.9681486927647</v>
       </c>
       <c r="I41" t="n">
         <v>24.89428053283217</v>
@@ -3791,22 +3791,22 @@
         <v>66.35732408396981</v>
       </c>
       <c r="T41" t="n">
-        <v>130.5527537722807</v>
+        <v>130.5527537722806</v>
       </c>
       <c r="U41" t="n">
-        <v>170.5021331415456</v>
+        <v>170.5021331415461</v>
       </c>
       <c r="V41" t="n">
-        <v>247.1265318584789</v>
+        <v>247.1265318584788</v>
       </c>
       <c r="W41" t="n">
-        <v>268.615242105757</v>
+        <v>268.6152421057569</v>
       </c>
       <c r="X41" t="n">
-        <v>289.105374066813</v>
+        <v>289.1053740668129</v>
       </c>
       <c r="Y41" t="n">
-        <v>305.6122120443976</v>
+        <v>305.6122120443975</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I42" t="n">
-        <v>39.24545706819393</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.719611937703164</v>
+        <v>9.719611937703192</v>
       </c>
       <c r="S42" t="n">
         <v>144.627090920151</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.20625357028125</v>
+        <v>99.20625357028122</v>
       </c>
       <c r="C43" t="n">
-        <v>86.62109448697178</v>
+        <v>86.62109448697176</v>
       </c>
       <c r="D43" t="n">
-        <v>67.98974640655631</v>
+        <v>67.98974640655628</v>
       </c>
       <c r="E43" t="n">
-        <v>65.80823603491312</v>
+        <v>65.80823603491309</v>
       </c>
       <c r="F43" t="n">
-        <v>64.7953214112752</v>
+        <v>64.79532141127517</v>
       </c>
       <c r="G43" t="n">
-        <v>86.14407135464994</v>
+        <v>86.14407135464991</v>
       </c>
       <c r="H43" t="n">
-        <v>70.74403315464336</v>
+        <v>70.74403315464333</v>
       </c>
       <c r="I43" t="n">
-        <v>38.10049335886227</v>
+        <v>38.10049335886226</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>205.6266928507174</v>
       </c>
       <c r="V43" t="n">
-        <v>171.511916712172</v>
+        <v>171.5119167121719</v>
       </c>
       <c r="W43" t="n">
-        <v>205.897271724935</v>
+        <v>205.8972717249349</v>
       </c>
       <c r="X43" t="n">
         <v>145.0839287773811</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.9589267404388</v>
+        <v>137.9589267404387</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>230.9681486927647</v>
       </c>
       <c r="I44" t="n">
-        <v>24.89428053283207</v>
+        <v>24.89428053283211</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.35732408396996</v>
+        <v>66.35732408396997</v>
       </c>
       <c r="T44" t="n">
-        <v>130.5527537722805</v>
+        <v>130.5527537722806</v>
       </c>
       <c r="U44" t="n">
-        <v>170.5021331415456</v>
+        <v>170.5021331415452</v>
       </c>
       <c r="V44" t="n">
         <v>247.1265318584788</v>
@@ -4074,7 +4074,7 @@
         <v>98.16756027794194</v>
       </c>
       <c r="I45" t="n">
-        <v>39.24545706819393</v>
+        <v>39.24545706819394</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.719611937703164</v>
+        <v>9.719611937703192</v>
       </c>
       <c r="S45" t="n">
         <v>144.627090920151</v>
@@ -4147,13 +4147,13 @@
         <v>64.79532141127511</v>
       </c>
       <c r="G46" t="n">
-        <v>86.14407135464984</v>
+        <v>86.14407135464985</v>
       </c>
       <c r="H46" t="n">
-        <v>70.74403315464326</v>
+        <v>70.74403315464328</v>
       </c>
       <c r="I46" t="n">
-        <v>38.10049335886219</v>
+        <v>38.1004933588622</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75890871471657</v>
+        <v>41.75890871471659</v>
       </c>
       <c r="S46" t="n">
         <v>122.109010254799</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>644.9043172197937</v>
+        <v>1665.927586159624</v>
       </c>
       <c r="C11" t="n">
-        <v>336.3718622346157</v>
+        <v>1357.395131174446</v>
       </c>
       <c r="D11" t="n">
-        <v>98.37468631961215</v>
+        <v>1059.559494522929</v>
       </c>
       <c r="E11" t="n">
-        <v>98.37468631961215</v>
+        <v>1059.559494522929</v>
       </c>
       <c r="F11" t="n">
-        <v>98.37468631961215</v>
+        <v>709.0036516885549</v>
       </c>
       <c r="G11" t="n">
-        <v>98.37468631961215</v>
+        <v>352.6859125506622</v>
       </c>
       <c r="H11" t="n">
-        <v>98.37468631961215</v>
+        <v>98.37468631961222</v>
       </c>
       <c r="I11" t="n">
         <v>52.21888247233252</v>
       </c>
       <c r="J11" t="n">
-        <v>101.7343437488734</v>
+        <v>101.7343437488733</v>
       </c>
       <c r="K11" t="n">
-        <v>226.6837028891878</v>
+        <v>226.6837028891875</v>
       </c>
       <c r="L11" t="n">
-        <v>418.5961935388109</v>
+        <v>418.5961935388106</v>
       </c>
       <c r="M11" t="n">
-        <v>974.5267764778696</v>
+        <v>663.8052544087989</v>
       </c>
       <c r="N11" t="n">
-        <v>1228.317384689748</v>
+        <v>1310.013925003914</v>
       </c>
       <c r="O11" t="n">
-        <v>1831.621577572528</v>
+        <v>1913.318117886693</v>
       </c>
       <c r="P11" t="n">
-        <v>2308.853365354637</v>
+        <v>2390.549905668803</v>
       </c>
       <c r="Q11" t="n">
         <v>2590.012803411431</v>
@@ -5069,22 +5069,22 @@
         <v>2522.90645759648</v>
       </c>
       <c r="T11" t="n">
-        <v>2370.024923204303</v>
+        <v>2522.90645759648</v>
       </c>
       <c r="U11" t="n">
-        <v>2176.790480358323</v>
+        <v>2522.90645759648</v>
       </c>
       <c r="V11" t="n">
-        <v>1906.157654969986</v>
+        <v>2252.273632208143</v>
       </c>
       <c r="W11" t="n">
-        <v>1613.819061655106</v>
+        <v>1959.935038893263</v>
       </c>
       <c r="X11" t="n">
-        <v>1300.78336534926</v>
+        <v>1665.927586159624</v>
       </c>
       <c r="Y11" t="n">
-        <v>971.0740953286816</v>
+        <v>1665.927586159624</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>191.019910094692</v>
       </c>
       <c r="H12" t="n">
-        <v>91.86075829879104</v>
+        <v>91.86075829879105</v>
       </c>
       <c r="I12" t="n">
         <v>52.21888247233252</v>
       </c>
       <c r="J12" t="n">
-        <v>62.89210503677875</v>
+        <v>62.89210503677872</v>
       </c>
       <c r="K12" t="n">
         <v>159.2891671302199</v>
       </c>
       <c r="L12" t="n">
-        <v>335.2294544063457</v>
+        <v>335.2294544063454</v>
       </c>
       <c r="M12" t="n">
-        <v>661.3967138277382</v>
+        <v>981.4381250014604</v>
       </c>
       <c r="N12" t="n">
         <v>1307.605384422853</v>
       </c>
       <c r="O12" t="n">
-        <v>1899.46011371513</v>
+        <v>1899.460113715131</v>
       </c>
       <c r="P12" t="n">
         <v>2357.472645129422</v>
@@ -5145,7 +5145,7 @@
         <v>2601.126333780563</v>
       </c>
       <c r="S12" t="n">
-        <v>2455.038363154148</v>
+        <v>2455.038363154147</v>
       </c>
       <c r="T12" t="n">
         <v>2258.782274920271</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.4460955917646</v>
+        <v>248.2080350721652</v>
       </c>
       <c r="C13" t="n">
-        <v>74.93997461909137</v>
+        <v>139.701914099492</v>
       </c>
       <c r="D13" t="n">
-        <v>52.21888247233252</v>
+        <v>139.701914099492</v>
       </c>
       <c r="E13" t="n">
         <v>52.21888247233252</v>
@@ -5200,19 +5200,19 @@
         <v>104.4949470601005</v>
       </c>
       <c r="K13" t="n">
-        <v>282.1359376002138</v>
+        <v>282.1359376002136</v>
       </c>
       <c r="L13" t="n">
-        <v>548.4183707156506</v>
+        <v>548.4183707156501</v>
       </c>
       <c r="M13" t="n">
-        <v>836.3453893342106</v>
+        <v>836.3453893342103</v>
       </c>
       <c r="N13" t="n">
         <v>1124.269061078941</v>
       </c>
       <c r="O13" t="n">
-        <v>1378.718196002888</v>
+        <v>1378.718196002887</v>
       </c>
       <c r="P13" t="n">
         <v>1581.470848568262</v>
@@ -5221,28 +5221,28 @@
         <v>1656.632645699482</v>
       </c>
       <c r="R13" t="n">
-        <v>1593.441863890703</v>
+        <v>1656.632645699482</v>
       </c>
       <c r="S13" t="n">
-        <v>1449.089363354568</v>
+        <v>1512.280145163347</v>
       </c>
       <c r="T13" t="n">
-        <v>1284.541835017799</v>
+        <v>1347.732616826577</v>
       </c>
       <c r="U13" t="n">
-        <v>1055.828038930231</v>
+        <v>1119.018820739009</v>
       </c>
       <c r="V13" t="n">
-        <v>861.5736126795775</v>
+        <v>924.7643944883561</v>
       </c>
       <c r="W13" t="n">
-        <v>632.5865045978506</v>
+        <v>697.3484440782513</v>
       </c>
       <c r="X13" t="n">
-        <v>465.0270156550669</v>
+        <v>529.7889551354676</v>
       </c>
       <c r="Y13" t="n">
-        <v>304.6644984667705</v>
+        <v>369.4264379471712</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>644.9043172197937</v>
+        <v>974.6135872403717</v>
       </c>
       <c r="C14" t="n">
-        <v>336.3718622346157</v>
+        <v>703.2417553850361</v>
       </c>
       <c r="D14" t="n">
-        <v>98.37468631961215</v>
+        <v>703.2417553850361</v>
       </c>
       <c r="E14" t="n">
-        <v>98.37468631961215</v>
+        <v>703.2417553850361</v>
       </c>
       <c r="F14" t="n">
-        <v>98.37468631961215</v>
+        <v>352.6859125506622</v>
       </c>
       <c r="G14" t="n">
-        <v>98.37468631961215</v>
+        <v>352.6859125506622</v>
       </c>
       <c r="H14" t="n">
-        <v>98.37468631961215</v>
+        <v>98.37468631961222</v>
       </c>
       <c r="I14" t="n">
         <v>52.21888247233252</v>
       </c>
       <c r="J14" t="n">
-        <v>101.7343437488734</v>
+        <v>101.7343437488733</v>
       </c>
       <c r="K14" t="n">
-        <v>226.6837028891878</v>
+        <v>226.6837028891875</v>
       </c>
       <c r="L14" t="n">
-        <v>418.5961935388109</v>
+        <v>832.0807959437566</v>
       </c>
       <c r="M14" t="n">
-        <v>663.8052544087993</v>
+        <v>1478.289466538872</v>
       </c>
       <c r="N14" t="n">
-        <v>1228.317384689748</v>
+        <v>1732.08007475075</v>
       </c>
       <c r="O14" t="n">
-        <v>1831.621577572528</v>
+        <v>1958.392088183411</v>
       </c>
       <c r="P14" t="n">
         <v>2308.853365354637</v>
@@ -5321,7 +5321,7 @@
         <v>1300.78336534926</v>
       </c>
       <c r="Y14" t="n">
-        <v>971.0740953286818</v>
+        <v>1300.78336534926</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>191.019910094692</v>
       </c>
       <c r="H15" t="n">
-        <v>91.86075829879104</v>
+        <v>91.86075829879105</v>
       </c>
       <c r="I15" t="n">
         <v>52.21888247233252</v>
       </c>
       <c r="J15" t="n">
-        <v>62.89210503677875</v>
+        <v>62.89210503677872</v>
       </c>
       <c r="K15" t="n">
         <v>159.2891671302199</v>
       </c>
       <c r="L15" t="n">
-        <v>335.2294544063457</v>
+        <v>335.2294544063454</v>
       </c>
       <c r="M15" t="n">
-        <v>981.4381250014607</v>
+        <v>661.3967138277388</v>
       </c>
       <c r="N15" t="n">
         <v>1307.605384422854</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.446095591765</v>
+        <v>183.4460955917639</v>
       </c>
       <c r="C16" t="n">
-        <v>160.2431618972059</v>
+        <v>74.93997461909072</v>
       </c>
       <c r="D16" t="n">
-        <v>160.2431618972059</v>
+        <v>74.93997461909072</v>
       </c>
       <c r="E16" t="n">
-        <v>160.2431618972059</v>
+        <v>74.93997461909072</v>
       </c>
       <c r="F16" t="n">
-        <v>160.2431618972059</v>
+        <v>52.21888247233252</v>
       </c>
       <c r="G16" t="n">
         <v>52.21888247233252</v>
@@ -5440,10 +5440,10 @@
         <v>282.1359376002136</v>
       </c>
       <c r="L16" t="n">
-        <v>548.4183707156502</v>
+        <v>548.4183707156501</v>
       </c>
       <c r="M16" t="n">
-        <v>836.3453893342103</v>
+        <v>836.3453893342102</v>
       </c>
       <c r="N16" t="n">
         <v>1124.269061078941</v>
@@ -5452,34 +5452,34 @@
         <v>1378.718196002887</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.470848568262</v>
+        <v>1581.470848568261</v>
       </c>
       <c r="Q16" t="n">
         <v>1656.632645699482</v>
       </c>
       <c r="R16" t="n">
-        <v>1593.441863890704</v>
+        <v>1593.441863890703</v>
       </c>
       <c r="S16" t="n">
-        <v>1449.089363354568</v>
+        <v>1449.089363354567</v>
       </c>
       <c r="T16" t="n">
-        <v>1284.541835017799</v>
+        <v>1284.541835017798</v>
       </c>
       <c r="U16" t="n">
-        <v>1055.828038930231</v>
+        <v>1055.82803893023</v>
       </c>
       <c r="V16" t="n">
-        <v>861.5736126795779</v>
+        <v>861.5736126795769</v>
       </c>
       <c r="W16" t="n">
-        <v>632.586504597851</v>
+        <v>632.58650459785</v>
       </c>
       <c r="X16" t="n">
-        <v>465.0270156550674</v>
+        <v>465.0270156550664</v>
       </c>
       <c r="Y16" t="n">
-        <v>304.664498466771</v>
+        <v>304.6644984667699</v>
       </c>
     </row>
     <row r="17">
@@ -5507,43 +5507,43 @@
         <v>228.3565903080799</v>
       </c>
       <c r="H17" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="I17" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="J17" t="n">
-        <v>105.0009532441325</v>
+        <v>105.0009532441324</v>
       </c>
       <c r="K17" t="n">
-        <v>229.9503123844469</v>
+        <v>229.9503123844467</v>
       </c>
       <c r="L17" t="n">
-        <v>828.2164675919961</v>
+        <v>835.3474054390158</v>
       </c>
       <c r="M17" t="n">
-        <v>1514.849430690942</v>
+        <v>1348.049091994133</v>
       </c>
       <c r="N17" t="n">
-        <v>1768.640038902821</v>
+        <v>1601.839700206011</v>
       </c>
       <c r="O17" t="n">
-        <v>1994.952052335483</v>
+        <v>2205.14389308879</v>
       </c>
       <c r="P17" t="n">
-        <v>2472.183840117592</v>
+        <v>2682.3756808709</v>
       </c>
       <c r="Q17" t="n">
-        <v>2753.343278174386</v>
+        <v>2753.343278174388</v>
       </c>
       <c r="R17" t="n">
-        <v>2774.274598379581</v>
+        <v>2774.274598379583</v>
       </c>
       <c r="S17" t="n">
-        <v>2767.677060249996</v>
+        <v>2767.677060249999</v>
       </c>
       <c r="T17" t="n">
-        <v>2696.235653748381</v>
+        <v>2696.235653748383</v>
       </c>
       <c r="U17" t="n">
         <v>2584.441338792964</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>960.7054634561651</v>
+        <v>960.7054634561654</v>
       </c>
       <c r="C18" t="n">
-        <v>786.2524341750382</v>
+        <v>786.2524341750384</v>
       </c>
       <c r="D18" t="n">
-        <v>637.3180245137869</v>
+        <v>637.3180245137871</v>
       </c>
       <c r="E18" t="n">
-        <v>478.0805695083315</v>
+        <v>478.0805695083316</v>
       </c>
       <c r="F18" t="n">
-        <v>331.5460115352164</v>
+        <v>331.5460115352165</v>
       </c>
       <c r="G18" t="n">
-        <v>194.2865195899511</v>
+        <v>194.2865195899512</v>
       </c>
       <c r="H18" t="n">
-        <v>95.12736779405014</v>
+        <v>95.1273677940502</v>
       </c>
       <c r="I18" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="J18" t="n">
         <v>66.15871453203786</v>
@@ -5598,37 +5598,37 @@
         <v>162.555776625479</v>
       </c>
       <c r="L18" t="n">
-        <v>338.4960639016048</v>
+        <v>338.4960639016046</v>
       </c>
       <c r="M18" t="n">
-        <v>624.2390308191656</v>
+        <v>624.2390308191663</v>
       </c>
       <c r="N18" t="n">
-        <v>1310.871993918112</v>
+        <v>1310.871993918113</v>
       </c>
       <c r="O18" t="n">
-        <v>1902.726723210389</v>
+        <v>1902.72672321039</v>
       </c>
       <c r="P18" t="n">
-        <v>2360.739254624681</v>
+        <v>2360.739254624682</v>
       </c>
       <c r="Q18" t="n">
-        <v>2614.210733111885</v>
+        <v>2614.210733111886</v>
       </c>
       <c r="R18" t="n">
-        <v>2604.392943275821</v>
+        <v>2604.392943275822</v>
       </c>
       <c r="S18" t="n">
-        <v>2458.304972649406</v>
+        <v>2458.304972649407</v>
       </c>
       <c r="T18" t="n">
-        <v>2262.04888441553</v>
+        <v>2262.048884415531</v>
       </c>
       <c r="U18" t="n">
         <v>2033.922064406664</v>
       </c>
       <c r="V18" t="n">
-        <v>1798.769956174921</v>
+        <v>1798.769956174922</v>
       </c>
       <c r="W18" t="n">
         <v>1544.53259944672</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.4733049321586</v>
+        <v>139.4733049321588</v>
       </c>
       <c r="C19" t="n">
-        <v>112.4073118500471</v>
+        <v>112.4073118500473</v>
       </c>
       <c r="D19" t="n">
-        <v>104.1608622835068</v>
+        <v>104.1608622835069</v>
       </c>
       <c r="E19" t="n">
-        <v>98.11795854690908</v>
+        <v>98.11795854690919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.09820089479413</v>
+        <v>93.09820089479422</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51404936048249</v>
+        <v>66.51404936048255</v>
       </c>
       <c r="H19" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="I19" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="J19" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="K19" t="n">
         <v>173.8989787853803</v>
       </c>
       <c r="L19" t="n">
-        <v>380.9539081784923</v>
+        <v>380.9539081784922</v>
       </c>
       <c r="M19" t="n">
-        <v>609.6534230747278</v>
+        <v>609.6534230747277</v>
       </c>
       <c r="N19" t="n">
-        <v>838.3495910971338</v>
+        <v>838.3495910971337</v>
       </c>
       <c r="O19" t="n">
         <v>1033.571222298756</v>
@@ -5698,25 +5698,25 @@
         <v>1193.030664550701</v>
       </c>
       <c r="S19" t="n">
-        <v>1130.118291905128</v>
+        <v>988.2481020593325</v>
       </c>
       <c r="T19" t="n">
-        <v>1047.01089145892</v>
+        <v>905.1407016131245</v>
       </c>
       <c r="U19" t="n">
-        <v>757.8670334161186</v>
+        <v>757.8670334161184</v>
       </c>
       <c r="V19" t="n">
-        <v>645.0527350560271</v>
+        <v>503.1825452102315</v>
       </c>
       <c r="W19" t="n">
-        <v>497.505754864862</v>
+        <v>355.6355650190663</v>
       </c>
       <c r="X19" t="n">
-        <v>411.3863938126401</v>
+        <v>269.5162039668443</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.5938146691099</v>
+        <v>179.2515799166031</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>1459.755815107243</v>
       </c>
       <c r="C20" t="n">
-        <v>1232.663488012626</v>
+        <v>1232.663488012627</v>
       </c>
       <c r="D20" t="n">
-        <v>1016.267979251671</v>
+        <v>1016.267979251672</v>
       </c>
       <c r="E20" t="n">
-        <v>772.349916499222</v>
+        <v>772.349916499223</v>
       </c>
       <c r="F20" t="n">
-        <v>503.2342015554108</v>
+        <v>503.2342015554109</v>
       </c>
       <c r="G20" t="n">
         <v>228.3565903080799</v>
       </c>
       <c r="H20" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="I20" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="J20" t="n">
-        <v>105.0009532441325</v>
+        <v>272.4066022644855</v>
       </c>
       <c r="K20" t="n">
-        <v>229.9503123844469</v>
+        <v>718.2599198502528</v>
       </c>
       <c r="L20" t="n">
-        <v>421.86280303407</v>
+        <v>910.1724104998758</v>
       </c>
       <c r="M20" t="n">
-        <v>705.0148963537564</v>
+        <v>1596.805373598823</v>
       </c>
       <c r="N20" t="n">
-        <v>1391.647859452703</v>
+        <v>1850.595981810701</v>
       </c>
       <c r="O20" t="n">
-        <v>1994.952052335483</v>
+        <v>2453.90017469348</v>
       </c>
       <c r="P20" t="n">
-        <v>2472.183840117592</v>
+        <v>2703.307001076095</v>
       </c>
       <c r="Q20" t="n">
-        <v>2753.343278174386</v>
+        <v>2774.274598379583</v>
       </c>
       <c r="R20" t="n">
-        <v>2774.274598379581</v>
+        <v>2774.274598379583</v>
       </c>
       <c r="S20" t="n">
-        <v>2767.677060249997</v>
+        <v>2767.677060249998</v>
       </c>
       <c r="T20" t="n">
-        <v>2696.235653748381</v>
+        <v>2696.235653748383</v>
       </c>
       <c r="U20" t="n">
         <v>2584.441338792964</v>
       </c>
       <c r="V20" t="n">
-        <v>2395.248641295188</v>
+        <v>2395.248641295189</v>
       </c>
       <c r="W20" t="n">
         <v>2184.35017587087</v>
       </c>
       <c r="X20" t="n">
-        <v>1952.754607455585</v>
+        <v>1952.754607455586</v>
       </c>
       <c r="Y20" t="n">
         <v>1704.485465325569</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>960.7054634561651</v>
+        <v>960.7054634561654</v>
       </c>
       <c r="C21" t="n">
-        <v>786.2524341750382</v>
+        <v>786.2524341750384</v>
       </c>
       <c r="D21" t="n">
-        <v>637.3180245137869</v>
+        <v>637.3180245137871</v>
       </c>
       <c r="E21" t="n">
-        <v>478.0805695083315</v>
+        <v>478.0805695083316</v>
       </c>
       <c r="F21" t="n">
-        <v>331.5460115352164</v>
+        <v>331.5460115352165</v>
       </c>
       <c r="G21" t="n">
-        <v>194.2865195899511</v>
+        <v>194.2865195899512</v>
       </c>
       <c r="H21" t="n">
-        <v>95.12736779405014</v>
+        <v>95.1273677940502</v>
       </c>
       <c r="I21" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="J21" t="n">
         <v>66.15871453203786</v>
@@ -5835,37 +5835,37 @@
         <v>162.555776625479</v>
       </c>
       <c r="L21" t="n">
-        <v>338.4960639016048</v>
+        <v>338.4960639016046</v>
       </c>
       <c r="M21" t="n">
-        <v>624.2390308191656</v>
+        <v>624.2390308191663</v>
       </c>
       <c r="N21" t="n">
-        <v>1310.871993918112</v>
+        <v>1310.871993918113</v>
       </c>
       <c r="O21" t="n">
-        <v>1902.726723210389</v>
+        <v>1902.72672321039</v>
       </c>
       <c r="P21" t="n">
-        <v>2360.739254624681</v>
+        <v>2360.739254624682</v>
       </c>
       <c r="Q21" t="n">
-        <v>2614.210733111885</v>
+        <v>2614.210733111886</v>
       </c>
       <c r="R21" t="n">
-        <v>2604.392943275821</v>
+        <v>2604.392943275822</v>
       </c>
       <c r="S21" t="n">
-        <v>2458.304972649406</v>
+        <v>2458.304972649407</v>
       </c>
       <c r="T21" t="n">
-        <v>2262.04888441553</v>
+        <v>2262.048884415531</v>
       </c>
       <c r="U21" t="n">
         <v>2033.922064406664</v>
       </c>
       <c r="V21" t="n">
-        <v>1798.769956174921</v>
+        <v>1798.769956174922</v>
       </c>
       <c r="W21" t="n">
         <v>1544.53259944672</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>281.343494777954</v>
+        <v>139.4733049321588</v>
       </c>
       <c r="C22" t="n">
-        <v>112.4073118500471</v>
+        <v>112.4073118500473</v>
       </c>
       <c r="D22" t="n">
-        <v>104.1608622835068</v>
+        <v>104.1608622835069</v>
       </c>
       <c r="E22" t="n">
-        <v>98.11795854690908</v>
+        <v>98.11795854690919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.09820089479413</v>
+        <v>93.09820089479422</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51404936048249</v>
+        <v>66.51404936048255</v>
       </c>
       <c r="H22" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="I22" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="J22" t="n">
-        <v>55.48549196759163</v>
+        <v>55.48549196759166</v>
       </c>
       <c r="K22" t="n">
         <v>173.8989787853803</v>
       </c>
       <c r="L22" t="n">
-        <v>380.9539081784923</v>
+        <v>380.9539081784922</v>
       </c>
       <c r="M22" t="n">
-        <v>609.6534230747278</v>
+        <v>609.6534230747277</v>
       </c>
       <c r="N22" t="n">
-        <v>838.3495910971338</v>
+        <v>838.3495910971337</v>
       </c>
       <c r="O22" t="n">
         <v>1033.571222298756</v>
@@ -5932,28 +5932,28 @@
         <v>1193.030664550701</v>
       </c>
       <c r="R22" t="n">
-        <v>1069.409820786689</v>
+        <v>1193.030664550701</v>
       </c>
       <c r="S22" t="n">
-        <v>1006.497448141115</v>
+        <v>1130.118291905128</v>
       </c>
       <c r="T22" t="n">
-        <v>923.3900476949074</v>
+        <v>1047.01089145892</v>
       </c>
       <c r="U22" t="n">
-        <v>776.1163794979013</v>
+        <v>888.3949885094072</v>
       </c>
       <c r="V22" t="n">
-        <v>663.3020811378099</v>
+        <v>633.7105003035203</v>
       </c>
       <c r="W22" t="n">
-        <v>515.7551009466447</v>
+        <v>486.1635201123551</v>
       </c>
       <c r="X22" t="n">
-        <v>429.6357398944228</v>
+        <v>400.0441590601332</v>
       </c>
       <c r="Y22" t="n">
-        <v>321.1217697623983</v>
+        <v>321.1217697623985</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1459.755815107244</v>
+        <v>1459.755815107243</v>
       </c>
       <c r="C23" t="n">
-        <v>1232.663488012628</v>
+        <v>1232.663488012627</v>
       </c>
       <c r="D23" t="n">
-        <v>1016.267979251673</v>
+        <v>1016.267979251672</v>
       </c>
       <c r="E23" t="n">
-        <v>772.3499164992239</v>
+        <v>772.349916499223</v>
       </c>
       <c r="F23" t="n">
-        <v>503.2342015554118</v>
+        <v>503.2342015554109</v>
       </c>
       <c r="G23" t="n">
         <v>228.3565903080799</v>
@@ -5987,28 +5987,28 @@
         <v>55.48549196759166</v>
       </c>
       <c r="J23" t="n">
-        <v>105.0009532441325</v>
+        <v>105.0009532441324</v>
       </c>
       <c r="K23" t="n">
-        <v>229.9503123844469</v>
+        <v>550.8542708298997</v>
       </c>
       <c r="L23" t="n">
-        <v>421.86280303407</v>
+        <v>742.7667614795228</v>
       </c>
       <c r="M23" t="n">
-        <v>705.0148963537574</v>
+        <v>1429.399724578469</v>
       </c>
       <c r="N23" t="n">
-        <v>1391.647859452704</v>
+        <v>1683.190332790347</v>
       </c>
       <c r="O23" t="n">
-        <v>1994.952052335484</v>
+        <v>2286.494525673127</v>
       </c>
       <c r="P23" t="n">
-        <v>2472.183840117594</v>
+        <v>2703.307001076094</v>
       </c>
       <c r="Q23" t="n">
-        <v>2753.343278174388</v>
+        <v>2774.274598379583</v>
       </c>
       <c r="R23" t="n">
         <v>2774.274598379583</v>
@@ -6020,16 +6020,16 @@
         <v>2696.235653748382</v>
       </c>
       <c r="U23" t="n">
-        <v>2584.441338792965</v>
+        <v>2584.441338792964</v>
       </c>
       <c r="V23" t="n">
-        <v>2395.24864129519</v>
+        <v>2395.248641295189</v>
       </c>
       <c r="W23" t="n">
         <v>2184.350175870871</v>
       </c>
       <c r="X23" t="n">
-        <v>1952.754607455587</v>
+        <v>1952.754607455586</v>
       </c>
       <c r="Y23" t="n">
         <v>1704.48546532557</v>
@@ -6054,37 +6054,37 @@
         <v>478.0805695083315</v>
       </c>
       <c r="F24" t="n">
-        <v>331.5460115352164</v>
+        <v>331.5460115352165</v>
       </c>
       <c r="G24" t="n">
-        <v>194.2865195899511</v>
+        <v>194.2865195899512</v>
       </c>
       <c r="H24" t="n">
-        <v>95.12736779405017</v>
+        <v>95.12736779405019</v>
       </c>
       <c r="I24" t="n">
         <v>55.48549196759166</v>
       </c>
       <c r="J24" t="n">
-        <v>66.15871453203789</v>
+        <v>190.9888395190426</v>
       </c>
       <c r="K24" t="n">
-        <v>223.6278586867653</v>
+        <v>287.3859016124837</v>
       </c>
       <c r="L24" t="n">
-        <v>399.568145962891</v>
+        <v>830.4581307390339</v>
       </c>
       <c r="M24" t="n">
-        <v>624.2390308191652</v>
+        <v>1516.177028707808</v>
       </c>
       <c r="N24" t="n">
-        <v>1310.871993918112</v>
+        <v>1761.202928272892</v>
       </c>
       <c r="O24" t="n">
-        <v>1902.726723210389</v>
+        <v>2110.70323806888</v>
       </c>
       <c r="P24" t="n">
-        <v>2360.739254624681</v>
+        <v>2568.715769483171</v>
       </c>
       <c r="Q24" t="n">
         <v>2614.210733111885</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.0648857664484</v>
+        <v>423.2136846237496</v>
       </c>
       <c r="C25" t="n">
-        <v>141.9988926843369</v>
+        <v>254.2775016958427</v>
       </c>
       <c r="D25" t="n">
-        <v>104.1608622835068</v>
+        <v>104.1608622835069</v>
       </c>
       <c r="E25" t="n">
-        <v>98.11795854690911</v>
+        <v>98.11795854690919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.09820089479416</v>
+        <v>93.09820089479422</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51404936048252</v>
+        <v>66.51404936048255</v>
       </c>
       <c r="H25" t="n">
         <v>55.48549196759166</v>
@@ -6148,49 +6148,49 @@
         <v>55.48549196759166</v>
       </c>
       <c r="K25" t="n">
-        <v>173.8989787853803</v>
+        <v>173.8989787853802</v>
       </c>
       <c r="L25" t="n">
-        <v>380.9539081784923</v>
+        <v>380.9539081784922</v>
       </c>
       <c r="M25" t="n">
-        <v>609.6534230747278</v>
+        <v>609.6534230747276</v>
       </c>
       <c r="N25" t="n">
-        <v>838.3495910971338</v>
+        <v>838.3495910971336</v>
       </c>
       <c r="O25" t="n">
         <v>1033.571222298756</v>
       </c>
       <c r="P25" t="n">
-        <v>1177.096371141806</v>
+        <v>1177.096371141805</v>
       </c>
       <c r="Q25" t="n">
         <v>1193.030664550701</v>
       </c>
       <c r="R25" t="n">
-        <v>1069.409820786689</v>
+        <v>1193.030664550701</v>
       </c>
       <c r="S25" t="n">
-        <v>1006.497448141115</v>
+        <v>1118.776057152621</v>
       </c>
       <c r="T25" t="n">
-        <v>923.3900476949074</v>
+        <v>1035.668656706413</v>
       </c>
       <c r="U25" t="n">
-        <v>776.1163794979013</v>
+        <v>888.3949885094073</v>
       </c>
       <c r="V25" t="n">
-        <v>663.3020811378099</v>
+        <v>775.5806901493158</v>
       </c>
       <c r="W25" t="n">
-        <v>373.8849111008493</v>
+        <v>628.0337099581506</v>
       </c>
       <c r="X25" t="n">
-        <v>287.7655500486273</v>
+        <v>541.9143489059286</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.8431607508927</v>
+        <v>462.9919596081939</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>667.0189736897732</v>
       </c>
       <c r="G26" t="n">
-        <v>331.7113004872086</v>
+        <v>331.7113004872085</v>
       </c>
       <c r="H26" t="n">
-        <v>98.41014019148665</v>
+        <v>98.41014019148668</v>
       </c>
       <c r="I26" t="n">
         <v>73.26440227953499</v>
       </c>
       <c r="J26" t="n">
-        <v>122.7798635560759</v>
+        <v>290.1855125764288</v>
       </c>
       <c r="K26" t="n">
-        <v>298.2047595876661</v>
+        <v>736.0388301621963</v>
       </c>
       <c r="L26" t="n">
-        <v>903.6018526422353</v>
+        <v>1341.435923216765</v>
       </c>
       <c r="M26" t="n">
-        <v>1593.829311670128</v>
+        <v>2031.663382244658</v>
       </c>
       <c r="N26" t="n">
-        <v>2280.593375049871</v>
+        <v>2511.716536008372</v>
       </c>
       <c r="O26" t="n">
-        <v>2883.897567932651</v>
+        <v>3115.020728891152</v>
       </c>
       <c r="P26" t="n">
-        <v>3361.129355714761</v>
+        <v>3592.252516673261</v>
       </c>
       <c r="Q26" t="n">
-        <v>3642.288793771555</v>
+        <v>3663.220113976749</v>
       </c>
       <c r="R26" t="n">
         <v>3663.220113976749</v>
@@ -6294,7 +6294,7 @@
         <v>349.3249218471598</v>
       </c>
       <c r="G27" t="n">
-        <v>212.0654299018944</v>
+        <v>212.0654299018945</v>
       </c>
       <c r="H27" t="n">
         <v>112.9062781059935</v>
@@ -6303,25 +6303,25 @@
         <v>73.26440227953499</v>
       </c>
       <c r="J27" t="n">
-        <v>83.93762484398125</v>
+        <v>208.767749830986</v>
       </c>
       <c r="K27" t="n">
-        <v>180.3346869374225</v>
+        <v>566.9853965668799</v>
       </c>
       <c r="L27" t="n">
-        <v>356.2749742135483</v>
+        <v>742.9256838430056</v>
       </c>
       <c r="M27" t="n">
-        <v>609.0760540648528</v>
+        <v>1314.277891102353</v>
       </c>
       <c r="N27" t="n">
-        <v>1328.650904230055</v>
+        <v>2033.852741267556</v>
       </c>
       <c r="O27" t="n">
-        <v>1920.505633522333</v>
+        <v>2235.783774475871</v>
       </c>
       <c r="P27" t="n">
-        <v>2378.518164936624</v>
+        <v>2378.518164936625</v>
       </c>
       <c r="Q27" t="n">
         <v>2631.989643423829</v>
@@ -6361,16 +6361,16 @@
         <v>558.317933802638</v>
       </c>
       <c r="C28" t="n">
-        <v>470.8218787652927</v>
+        <v>470.8218787652928</v>
       </c>
       <c r="D28" t="n">
-        <v>402.1453672435186</v>
+        <v>402.1453672435188</v>
       </c>
       <c r="E28" t="n">
-        <v>335.6724015516872</v>
+        <v>335.6724015516874</v>
       </c>
       <c r="F28" t="n">
-        <v>270.2225819443385</v>
+        <v>270.2225819443387</v>
       </c>
       <c r="G28" t="n">
         <v>183.2083684547931</v>
@@ -6385,19 +6385,19 @@
         <v>146.1324324905179</v>
       </c>
       <c r="K28" t="n">
-        <v>344.3653886538461</v>
+        <v>344.365388653846</v>
       </c>
       <c r="L28" t="n">
-        <v>631.2397873924976</v>
+        <v>631.2397873924974</v>
       </c>
       <c r="M28" t="n">
-        <v>939.7587716342728</v>
+        <v>939.7587716342724</v>
       </c>
       <c r="N28" t="n">
         <v>1248.274409002218</v>
       </c>
       <c r="O28" t="n">
-        <v>1523.31550954938</v>
+        <v>1523.315509549379</v>
       </c>
       <c r="P28" t="n">
         <v>1746.660127737969</v>
@@ -6455,31 +6455,31 @@
         <v>331.7113004872085</v>
       </c>
       <c r="H29" t="n">
-        <v>98.41014019148666</v>
+        <v>98.4101401914867</v>
       </c>
       <c r="I29" t="n">
         <v>73.26440227953499</v>
       </c>
       <c r="J29" t="n">
-        <v>122.7798635560759</v>
+        <v>122.7798635560758</v>
       </c>
       <c r="K29" t="n">
-        <v>568.6331811418434</v>
+        <v>568.6331811418431</v>
       </c>
       <c r="L29" t="n">
-        <v>903.6018526422356</v>
+        <v>1174.030274196412</v>
       </c>
       <c r="M29" t="n">
-        <v>1593.829311670128</v>
+        <v>1864.257733224305</v>
       </c>
       <c r="N29" t="n">
-        <v>2280.593375049871</v>
+        <v>2551.021796604047</v>
       </c>
       <c r="O29" t="n">
-        <v>2883.897567932651</v>
+        <v>3154.325989486827</v>
       </c>
       <c r="P29" t="n">
-        <v>3361.129355714761</v>
+        <v>3571.321196468066</v>
       </c>
       <c r="Q29" t="n">
         <v>3642.288793771555</v>
@@ -6540,19 +6540,19 @@
         <v>73.26440227953499</v>
       </c>
       <c r="J30" t="n">
-        <v>83.93762484398123</v>
+        <v>208.767749830986</v>
       </c>
       <c r="K30" t="n">
-        <v>180.3346869374224</v>
+        <v>566.9853965668799</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2749742135481</v>
+        <v>742.9256838430056</v>
       </c>
       <c r="M30" t="n">
-        <v>609.0760540648532</v>
+        <v>1428.64458181178</v>
       </c>
       <c r="N30" t="n">
-        <v>1328.650904230056</v>
+        <v>1718.574600314018</v>
       </c>
       <c r="O30" t="n">
         <v>1920.505633522333</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>558.3179338026384</v>
+        <v>558.317933802638</v>
       </c>
       <c r="C31" t="n">
-        <v>470.8218787652931</v>
+        <v>470.8218787652927</v>
       </c>
       <c r="D31" t="n">
-        <v>402.1453672435191</v>
+        <v>402.1453672435186</v>
       </c>
       <c r="E31" t="n">
-        <v>335.6724015516876</v>
+        <v>335.6724015516872</v>
       </c>
       <c r="F31" t="n">
-        <v>270.222581944339</v>
+        <v>270.2225819443385</v>
       </c>
       <c r="G31" t="n">
-        <v>183.2083684547936</v>
+        <v>183.2083684547931</v>
       </c>
       <c r="H31" t="n">
-        <v>111.7497491066688</v>
+        <v>111.7497491066686</v>
       </c>
       <c r="I31" t="n">
         <v>73.26440227953499</v>
       </c>
       <c r="J31" t="n">
-        <v>146.1324324905178</v>
+        <v>146.1324324905179</v>
       </c>
       <c r="K31" t="n">
-        <v>344.3653886538459</v>
+        <v>344.365388653846</v>
       </c>
       <c r="L31" t="n">
         <v>631.2397873924974</v>
@@ -6643,28 +6643,28 @@
         <v>1842.413890492404</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.233174618953</v>
+        <v>1800.233174618952</v>
       </c>
       <c r="S31" t="n">
-        <v>1676.890740018146</v>
+        <v>1676.890740018145</v>
       </c>
       <c r="T31" t="n">
-        <v>1533.353277616704</v>
+        <v>1533.353277616703</v>
       </c>
       <c r="U31" t="n">
-        <v>1325.649547464465</v>
+        <v>1325.649547464463</v>
       </c>
       <c r="V31" t="n">
-        <v>1152.405187149139</v>
+        <v>1152.405187149138</v>
       </c>
       <c r="W31" t="n">
-        <v>944.4281450027405</v>
+        <v>944.4281450027394</v>
       </c>
       <c r="X31" t="n">
-        <v>797.8787219952849</v>
+        <v>797.8787219952837</v>
       </c>
       <c r="Y31" t="n">
-        <v>658.5262707423165</v>
+        <v>658.526270742316</v>
       </c>
     </row>
     <row r="32">
@@ -6683,43 +6683,43 @@
         <v>1300.912875296502</v>
       </c>
       <c r="E32" t="n">
-        <v>996.5647505888194</v>
+        <v>996.5647505888192</v>
       </c>
       <c r="F32" t="n">
-        <v>667.0189736897735</v>
+        <v>667.0189736897732</v>
       </c>
       <c r="G32" t="n">
-        <v>331.7113004872087</v>
+        <v>331.7113004872085</v>
       </c>
       <c r="H32" t="n">
-        <v>98.41014019148666</v>
+        <v>98.4101401914867</v>
       </c>
       <c r="I32" t="n">
-        <v>73.26440227953498</v>
+        <v>73.26440227953499</v>
       </c>
       <c r="J32" t="n">
-        <v>173.2554004473513</v>
+        <v>173.2554004473536</v>
       </c>
       <c r="K32" t="n">
-        <v>298.2047595876656</v>
+        <v>298.2047595876678</v>
       </c>
       <c r="L32" t="n">
-        <v>903.6018526422347</v>
+        <v>903.6018526422368</v>
       </c>
       <c r="M32" t="n">
-        <v>1593.829311670127</v>
+        <v>1593.829311670129</v>
       </c>
       <c r="N32" t="n">
-        <v>2280.59337504987</v>
+        <v>2280.593375049872</v>
       </c>
       <c r="O32" t="n">
-        <v>2883.89756793265</v>
+        <v>2883.897567932651</v>
       </c>
       <c r="P32" t="n">
-        <v>3361.12935571476</v>
+        <v>3361.129355714761</v>
       </c>
       <c r="Q32" t="n">
-        <v>3642.288793771554</v>
+        <v>3642.288793771555</v>
       </c>
       <c r="R32" t="n">
         <v>3663.220113976749</v>
@@ -6728,7 +6728,7 @@
         <v>3596.192513891931</v>
       </c>
       <c r="T32" t="n">
-        <v>3464.321045435081</v>
+        <v>3464.321045435082</v>
       </c>
       <c r="U32" t="n">
         <v>3292.09666852443</v>
@@ -6768,34 +6768,34 @@
         <v>349.3249218471598</v>
       </c>
       <c r="G33" t="n">
-        <v>212.0654299018944</v>
+        <v>212.0654299018945</v>
       </c>
       <c r="H33" t="n">
         <v>112.9062781059935</v>
       </c>
       <c r="I33" t="n">
-        <v>73.26440227953498</v>
+        <v>73.26440227953499</v>
       </c>
       <c r="J33" t="n">
-        <v>83.93762484398121</v>
+        <v>83.9376248439812</v>
       </c>
       <c r="K33" t="n">
-        <v>180.3346869374224</v>
+        <v>442.1552715798751</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2749742135481</v>
+        <v>618.0955588560007</v>
       </c>
       <c r="M33" t="n">
-        <v>609.0760540648532</v>
+        <v>1303.814456824775</v>
       </c>
       <c r="N33" t="n">
-        <v>1328.650904230056</v>
+        <v>1851.905560042084</v>
       </c>
       <c r="O33" t="n">
-        <v>1920.505633522333</v>
+        <v>2443.760289334361</v>
       </c>
       <c r="P33" t="n">
-        <v>2378.518164936625</v>
+        <v>2586.494679795115</v>
       </c>
       <c r="Q33" t="n">
         <v>2631.989643423829</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.3179338026384</v>
+        <v>558.317933802638</v>
       </c>
       <c r="C34" t="n">
-        <v>470.8218787652931</v>
+        <v>470.8218787652927</v>
       </c>
       <c r="D34" t="n">
-        <v>402.1453672435191</v>
+        <v>402.1453672435186</v>
       </c>
       <c r="E34" t="n">
-        <v>335.6724015516876</v>
+        <v>335.6724015516872</v>
       </c>
       <c r="F34" t="n">
-        <v>270.222581944339</v>
+        <v>270.2225819443386</v>
       </c>
       <c r="G34" t="n">
-        <v>183.2083684547933</v>
+        <v>183.2083684547932</v>
       </c>
       <c r="H34" t="n">
         <v>111.7497491066686</v>
       </c>
       <c r="I34" t="n">
-        <v>73.26440227953498</v>
+        <v>73.26440227953499</v>
       </c>
       <c r="J34" t="n">
         <v>146.1324324905179</v>
@@ -6862,16 +6862,16 @@
         <v>344.365388653846</v>
       </c>
       <c r="L34" t="n">
-        <v>631.2397873924975</v>
+        <v>631.2397873924974</v>
       </c>
       <c r="M34" t="n">
-        <v>939.7587716342725</v>
+        <v>939.7587716342723</v>
       </c>
       <c r="N34" t="n">
         <v>1248.274409002218</v>
       </c>
       <c r="O34" t="n">
-        <v>1523.31550954938</v>
+        <v>1523.315509549379</v>
       </c>
       <c r="P34" t="n">
         <v>1746.660127737969</v>
@@ -6880,28 +6880,28 @@
         <v>1842.413890492404</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.233174618953</v>
+        <v>1800.233174618952</v>
       </c>
       <c r="S34" t="n">
         <v>1676.890740018146</v>
       </c>
       <c r="T34" t="n">
-        <v>1533.353277616705</v>
+        <v>1533.353277616704</v>
       </c>
       <c r="U34" t="n">
-        <v>1325.649547464465</v>
+        <v>1325.649547464464</v>
       </c>
       <c r="V34" t="n">
-        <v>1152.40518714914</v>
+        <v>1152.405187149139</v>
       </c>
       <c r="W34" t="n">
-        <v>944.4281450027406</v>
+        <v>944.4281450027401</v>
       </c>
       <c r="X34" t="n">
-        <v>797.8787219952849</v>
+        <v>797.8787219952844</v>
       </c>
       <c r="Y34" t="n">
-        <v>658.5262707423165</v>
+        <v>658.526270742316</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>667.0189736897732</v>
       </c>
       <c r="G35" t="n">
-        <v>331.7113004872085</v>
+        <v>331.7113004872086</v>
       </c>
       <c r="H35" t="n">
-        <v>98.41014019148666</v>
+        <v>98.41014019148669</v>
       </c>
       <c r="I35" t="n">
         <v>73.26440227953499</v>
       </c>
       <c r="J35" t="n">
-        <v>122.7798635560759</v>
+        <v>290.1855125764288</v>
       </c>
       <c r="K35" t="n">
-        <v>298.2047595876666</v>
+        <v>736.0388301621961</v>
       </c>
       <c r="L35" t="n">
-        <v>903.6018526422356</v>
+        <v>1336.575307810101</v>
       </c>
       <c r="M35" t="n">
-        <v>1593.829311670128</v>
+        <v>2026.802766837994</v>
       </c>
       <c r="N35" t="n">
-        <v>2280.593375049871</v>
+        <v>2280.593375049872</v>
       </c>
       <c r="O35" t="n">
         <v>2883.897567932651</v>
@@ -6974,10 +6974,10 @@
         <v>3042.473909071421</v>
       </c>
       <c r="W35" t="n">
-        <v>2771.145381691868</v>
+        <v>2771.145381691869</v>
       </c>
       <c r="X35" t="n">
-        <v>2479.11975132135</v>
+        <v>2479.119751321351</v>
       </c>
       <c r="Y35" t="n">
         <v>2170.4205472361</v>
@@ -7014,25 +7014,25 @@
         <v>73.26440227953499</v>
       </c>
       <c r="J36" t="n">
-        <v>83.93762484398123</v>
+        <v>208.767749830986</v>
       </c>
       <c r="K36" t="n">
-        <v>180.3346869374224</v>
+        <v>378.0885333816757</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2749742135481</v>
+        <v>921.1607625082258</v>
       </c>
       <c r="M36" t="n">
-        <v>609.0760540648532</v>
+        <v>1606.879660477</v>
       </c>
       <c r="N36" t="n">
-        <v>1328.650904230056</v>
+        <v>1851.905560042084</v>
       </c>
       <c r="O36" t="n">
-        <v>1920.505633522333</v>
+        <v>2443.760289334361</v>
       </c>
       <c r="P36" t="n">
-        <v>2378.518164936625</v>
+        <v>2586.494679795115</v>
       </c>
       <c r="Q36" t="n">
         <v>2631.989643423829</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>558.3179338026382</v>
+        <v>558.3179338026379</v>
       </c>
       <c r="C37" t="n">
-        <v>470.8218787652929</v>
+        <v>470.8218787652927</v>
       </c>
       <c r="D37" t="n">
-        <v>402.1453672435189</v>
+        <v>402.1453672435186</v>
       </c>
       <c r="E37" t="n">
-        <v>335.6724015516874</v>
+        <v>335.6724015516872</v>
       </c>
       <c r="F37" t="n">
-        <v>270.2225819443387</v>
+        <v>270.2225819443386</v>
       </c>
       <c r="G37" t="n">
-        <v>183.2083684547933</v>
+        <v>183.2083684547931</v>
       </c>
       <c r="H37" t="n">
         <v>111.7497491066686</v>
@@ -7093,16 +7093,16 @@
         <v>73.26440227953499</v>
       </c>
       <c r="J37" t="n">
-        <v>146.132432490518</v>
+        <v>146.1324324905179</v>
       </c>
       <c r="K37" t="n">
-        <v>344.3653886538461</v>
+        <v>344.365388653846</v>
       </c>
       <c r="L37" t="n">
-        <v>631.2397873924976</v>
+        <v>631.2397873924974</v>
       </c>
       <c r="M37" t="n">
-        <v>939.7587716342728</v>
+        <v>939.7587716342726</v>
       </c>
       <c r="N37" t="n">
         <v>1248.274409002218</v>
@@ -7117,10 +7117,10 @@
         <v>1842.413890492404</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.233174618953</v>
+        <v>1800.233174618952</v>
       </c>
       <c r="S37" t="n">
-        <v>1676.890740018146</v>
+        <v>1676.890740018145</v>
       </c>
       <c r="T37" t="n">
         <v>1533.353277616704</v>
@@ -7132,13 +7132,13 @@
         <v>1152.405187149139</v>
       </c>
       <c r="W37" t="n">
-        <v>944.4281450027403</v>
+        <v>944.4281450027399</v>
       </c>
       <c r="X37" t="n">
-        <v>797.8787219952846</v>
+        <v>797.8787219952843</v>
       </c>
       <c r="Y37" t="n">
-        <v>658.5262707423162</v>
+        <v>658.5262707423159</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1865.26083506254</v>
+        <v>1865.260835062541</v>
       </c>
       <c r="C38" t="n">
-        <v>1577.73844601269</v>
+        <v>1577.738446012691</v>
       </c>
       <c r="D38" t="n">
-        <v>1300.912875296501</v>
+        <v>1300.912875296502</v>
       </c>
       <c r="E38" t="n">
-        <v>996.5647505888187</v>
+        <v>996.5647505888192</v>
       </c>
       <c r="F38" t="n">
-        <v>667.0189736897728</v>
+        <v>667.0189736897732</v>
       </c>
       <c r="G38" t="n">
-        <v>331.7113004872081</v>
+        <v>331.7113004872086</v>
       </c>
       <c r="H38" t="n">
-        <v>98.4101401914867</v>
+        <v>98.41014019148669</v>
       </c>
       <c r="I38" t="n">
-        <v>73.26440227953501</v>
+        <v>73.26440227953499</v>
       </c>
       <c r="J38" t="n">
-        <v>122.7798635560759</v>
+        <v>290.1855125764288</v>
       </c>
       <c r="K38" t="n">
-        <v>298.2047595876675</v>
+        <v>529.3279205461679</v>
       </c>
       <c r="L38" t="n">
-        <v>903.6018526422365</v>
+        <v>1134.725013600737</v>
       </c>
       <c r="M38" t="n">
-        <v>1593.829311670129</v>
+        <v>1824.952472628629</v>
       </c>
       <c r="N38" t="n">
-        <v>2280.593375049872</v>
+        <v>2511.716536008372</v>
       </c>
       <c r="O38" t="n">
-        <v>2883.897567932651</v>
+        <v>3115.020728891152</v>
       </c>
       <c r="P38" t="n">
-        <v>3361.129355714761</v>
+        <v>3592.252516673261</v>
       </c>
       <c r="Q38" t="n">
-        <v>3642.288793771555</v>
+        <v>3663.220113976749</v>
       </c>
       <c r="R38" t="n">
-        <v>3663.22011397675</v>
+        <v>3663.220113976749</v>
       </c>
       <c r="S38" t="n">
         <v>3596.192513891931</v>
       </c>
       <c r="T38" t="n">
-        <v>3464.321045435083</v>
+        <v>3464.321045435082</v>
       </c>
       <c r="U38" t="n">
         <v>3292.09666852443</v>
@@ -7211,13 +7211,13 @@
         <v>3042.473909071421</v>
       </c>
       <c r="W38" t="n">
-        <v>2771.145381691868</v>
+        <v>2771.145381691869</v>
       </c>
       <c r="X38" t="n">
-        <v>2479.11975132135</v>
+        <v>2479.119751321351</v>
       </c>
       <c r="Y38" t="n">
-        <v>2170.4205472361</v>
+        <v>2170.420547236101</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>112.9062781059935</v>
       </c>
       <c r="I39" t="n">
-        <v>73.26440227953501</v>
+        <v>73.26440227953499</v>
       </c>
       <c r="J39" t="n">
-        <v>83.93762484398124</v>
+        <v>83.9376248439812</v>
       </c>
       <c r="K39" t="n">
-        <v>180.3346869374224</v>
+        <v>442.1552715798751</v>
       </c>
       <c r="L39" t="n">
-        <v>356.2749742135481</v>
+        <v>921.1607625082258</v>
       </c>
       <c r="M39" t="n">
-        <v>609.0760540648532</v>
+        <v>1606.879660477</v>
       </c>
       <c r="N39" t="n">
-        <v>1328.650904230056</v>
+        <v>1851.905560042084</v>
       </c>
       <c r="O39" t="n">
-        <v>1920.505633522333</v>
+        <v>2443.760289334361</v>
       </c>
       <c r="P39" t="n">
-        <v>2378.518164936625</v>
+        <v>2586.494679795115</v>
       </c>
       <c r="Q39" t="n">
         <v>2631.989643423829</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>558.3179338026382</v>
+        <v>558.3179338026379</v>
       </c>
       <c r="C40" t="n">
-        <v>470.8218787652929</v>
+        <v>470.8218787652927</v>
       </c>
       <c r="D40" t="n">
-        <v>402.1453672435189</v>
+        <v>402.1453672435186</v>
       </c>
       <c r="E40" t="n">
-        <v>335.6724015516874</v>
+        <v>335.6724015516872</v>
       </c>
       <c r="F40" t="n">
-        <v>270.2225819443387</v>
+        <v>270.2225819443386</v>
       </c>
       <c r="G40" t="n">
-        <v>183.2083684547932</v>
+        <v>183.2083684547933</v>
       </c>
       <c r="H40" t="n">
-        <v>111.7497491066686</v>
+        <v>111.7497491066687</v>
       </c>
       <c r="I40" t="n">
-        <v>73.26440227953501</v>
+        <v>73.26440227953499</v>
       </c>
       <c r="J40" t="n">
         <v>146.1324324905179</v>
       </c>
       <c r="K40" t="n">
-        <v>344.365388653846</v>
+        <v>344.3653886538461</v>
       </c>
       <c r="L40" t="n">
-        <v>631.2397873924974</v>
+        <v>631.2397873924975</v>
       </c>
       <c r="M40" t="n">
-        <v>939.7587716342724</v>
+        <v>939.7587716342728</v>
       </c>
       <c r="N40" t="n">
         <v>1248.274409002218</v>
       </c>
       <c r="O40" t="n">
-        <v>1523.315509549379</v>
+        <v>1523.31550954938</v>
       </c>
       <c r="P40" t="n">
         <v>1746.660127737969</v>
@@ -7354,10 +7354,10 @@
         <v>1842.413890492404</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.233174618953</v>
+        <v>1800.233174618952</v>
       </c>
       <c r="S40" t="n">
-        <v>1676.890740018146</v>
+        <v>1676.890740018145</v>
       </c>
       <c r="T40" t="n">
         <v>1533.353277616704</v>
@@ -7369,13 +7369,13 @@
         <v>1152.405187149139</v>
       </c>
       <c r="W40" t="n">
-        <v>944.4281450027404</v>
+        <v>944.4281450027399</v>
       </c>
       <c r="X40" t="n">
-        <v>797.8787219952846</v>
+        <v>797.8787219952843</v>
       </c>
       <c r="Y40" t="n">
-        <v>658.5262707423162</v>
+        <v>658.5262707423159</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1865.26083506254</v>
+        <v>1865.260835062541</v>
       </c>
       <c r="C41" t="n">
-        <v>1577.73844601269</v>
+        <v>1577.738446012691</v>
       </c>
       <c r="D41" t="n">
-        <v>1300.912875296502</v>
+        <v>1300.912875296501</v>
       </c>
       <c r="E41" t="n">
-        <v>996.5647505888192</v>
+        <v>996.5647505888187</v>
       </c>
       <c r="F41" t="n">
-        <v>667.0189736897732</v>
+        <v>667.0189736897728</v>
       </c>
       <c r="G41" t="n">
-        <v>331.7113004872085</v>
+        <v>331.7113004872081</v>
       </c>
       <c r="H41" t="n">
         <v>98.41014019148668</v>
@@ -7409,19 +7409,19 @@
         <v>73.26440227953499</v>
       </c>
       <c r="J41" t="n">
-        <v>122.7798635560759</v>
+        <v>122.7798635560758</v>
       </c>
       <c r="K41" t="n">
-        <v>568.6331811418434</v>
+        <v>298.2047595876678</v>
       </c>
       <c r="L41" t="n">
-        <v>903.6018526422356</v>
+        <v>903.6018526422368</v>
       </c>
       <c r="M41" t="n">
-        <v>1593.829311670128</v>
+        <v>1593.829311670129</v>
       </c>
       <c r="N41" t="n">
-        <v>2280.593375049871</v>
+        <v>2280.593375049872</v>
       </c>
       <c r="O41" t="n">
         <v>2883.897567932651</v>
@@ -7448,13 +7448,13 @@
         <v>3042.473909071421</v>
       </c>
       <c r="W41" t="n">
-        <v>2771.145381691868</v>
+        <v>2771.145381691869</v>
       </c>
       <c r="X41" t="n">
-        <v>2479.11975132135</v>
+        <v>2479.119751321351</v>
       </c>
       <c r="Y41" t="n">
-        <v>2170.4205472361</v>
+        <v>2170.420547236101</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>73.26440227953499</v>
       </c>
       <c r="J42" t="n">
-        <v>83.93762484398123</v>
+        <v>83.9376248439812</v>
       </c>
       <c r="K42" t="n">
-        <v>180.3346869374224</v>
+        <v>442.1552715798751</v>
       </c>
       <c r="L42" t="n">
-        <v>356.2749742135481</v>
+        <v>618.0955588560007</v>
       </c>
       <c r="M42" t="n">
-        <v>609.0760540648532</v>
+        <v>1291.601519523462</v>
       </c>
       <c r="N42" t="n">
-        <v>1328.650904230056</v>
+        <v>1536.627419088547</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.505633522333</v>
+        <v>2128.482148380824</v>
       </c>
       <c r="P42" t="n">
-        <v>2378.518164936625</v>
+        <v>2586.494679795115</v>
       </c>
       <c r="Q42" t="n">
         <v>2631.989643423829</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>558.3179338026382</v>
+        <v>558.3179338026379</v>
       </c>
       <c r="C43" t="n">
-        <v>470.821878765293</v>
+        <v>470.8218787652927</v>
       </c>
       <c r="D43" t="n">
-        <v>402.1453672435189</v>
+        <v>402.1453672435186</v>
       </c>
       <c r="E43" t="n">
-        <v>335.6724015516875</v>
+        <v>335.6724015516872</v>
       </c>
       <c r="F43" t="n">
-        <v>270.2225819443388</v>
+        <v>270.2225819443386</v>
       </c>
       <c r="G43" t="n">
         <v>183.2083684547932</v>
@@ -7567,34 +7567,34 @@
         <v>73.26440227953499</v>
       </c>
       <c r="J43" t="n">
-        <v>146.1324324905181</v>
+        <v>146.1324324905179</v>
       </c>
       <c r="K43" t="n">
-        <v>344.3653886538463</v>
+        <v>344.365388653846</v>
       </c>
       <c r="L43" t="n">
-        <v>631.2397873924978</v>
+        <v>631.2397873924974</v>
       </c>
       <c r="M43" t="n">
-        <v>939.7587716342728</v>
+        <v>939.7587716342723</v>
       </c>
       <c r="N43" t="n">
         <v>1248.274409002218</v>
       </c>
       <c r="O43" t="n">
-        <v>1523.31550954938</v>
+        <v>1523.315509549379</v>
       </c>
       <c r="P43" t="n">
-        <v>1746.660127737969</v>
+        <v>1746.660127737968</v>
       </c>
       <c r="Q43" t="n">
         <v>1842.413890492404</v>
       </c>
       <c r="R43" t="n">
-        <v>1800.233174618953</v>
+        <v>1800.233174618952</v>
       </c>
       <c r="S43" t="n">
-        <v>1676.890740018146</v>
+        <v>1676.890740018145</v>
       </c>
       <c r="T43" t="n">
         <v>1533.353277616704</v>
@@ -7606,13 +7606,13 @@
         <v>1152.405187149139</v>
       </c>
       <c r="W43" t="n">
-        <v>944.4281450027404</v>
+        <v>944.4281450027399</v>
       </c>
       <c r="X43" t="n">
-        <v>797.8787219952846</v>
+        <v>797.8787219952843</v>
       </c>
       <c r="Y43" t="n">
-        <v>658.5262707423162</v>
+        <v>658.5262707423159</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7628,37 @@
         <v>1577.738446012691</v>
       </c>
       <c r="D44" t="n">
-        <v>1300.912875296501</v>
+        <v>1300.912875296502</v>
       </c>
       <c r="E44" t="n">
-        <v>996.5647505888189</v>
+        <v>996.5647505888195</v>
       </c>
       <c r="F44" t="n">
-        <v>667.0189736897731</v>
+        <v>667.0189736897737</v>
       </c>
       <c r="G44" t="n">
         <v>331.7113004872085</v>
       </c>
       <c r="H44" t="n">
-        <v>98.41014019148658</v>
+        <v>98.41014019148662</v>
       </c>
       <c r="I44" t="n">
         <v>73.26440227953499</v>
       </c>
       <c r="J44" t="n">
-        <v>122.7798635560759</v>
+        <v>290.1855125764288</v>
       </c>
       <c r="K44" t="n">
-        <v>298.2047595876666</v>
+        <v>736.0388301621961</v>
       </c>
       <c r="L44" t="n">
-        <v>903.6018526422356</v>
+        <v>927.9513208118191</v>
       </c>
       <c r="M44" t="n">
-        <v>1593.829311670128</v>
+        <v>1593.829311670129</v>
       </c>
       <c r="N44" t="n">
-        <v>2280.593375049871</v>
+        <v>2280.593375049872</v>
       </c>
       <c r="O44" t="n">
         <v>2883.897567932651</v>
@@ -7725,25 +7725,25 @@
         <v>73.26440227953499</v>
       </c>
       <c r="J45" t="n">
-        <v>83.93762484398123</v>
+        <v>208.767749830986</v>
       </c>
       <c r="K45" t="n">
-        <v>180.3346869374224</v>
+        <v>566.9853965668799</v>
       </c>
       <c r="L45" t="n">
-        <v>356.2749742135481</v>
+        <v>742.9256838430056</v>
       </c>
       <c r="M45" t="n">
-        <v>609.0760540648532</v>
+        <v>1428.64458181178</v>
       </c>
       <c r="N45" t="n">
-        <v>1328.650904230056</v>
+        <v>1673.670481376864</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.505633522333</v>
+        <v>2265.525210669141</v>
       </c>
       <c r="P45" t="n">
-        <v>2378.518164936625</v>
+        <v>2408.259601129895</v>
       </c>
       <c r="Q45" t="n">
         <v>2631.989643423829</v>
@@ -7795,7 +7795,7 @@
         <v>270.2225819443383</v>
       </c>
       <c r="G46" t="n">
-        <v>183.208368454793</v>
+        <v>183.2083684547931</v>
       </c>
       <c r="H46" t="n">
         <v>111.7497491066685</v>
@@ -7807,19 +7807,19 @@
         <v>146.132432490518</v>
       </c>
       <c r="K46" t="n">
-        <v>344.3653886538463</v>
+        <v>344.3653886538461</v>
       </c>
       <c r="L46" t="n">
-        <v>631.2397873924958</v>
+        <v>631.2397873924976</v>
       </c>
       <c r="M46" t="n">
-        <v>939.7587716342709</v>
+        <v>939.7587716342726</v>
       </c>
       <c r="N46" t="n">
-        <v>1248.274409002217</v>
+        <v>1248.274409002218</v>
       </c>
       <c r="O46" t="n">
-        <v>1523.315509549378</v>
+        <v>1523.31550954938</v>
       </c>
       <c r="P46" t="n">
         <v>1746.660127737968</v>
@@ -8696,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>313.8601233020912</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>396.3818811951888</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>129.7932327668082</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>102.5215904698164</v>
+        <v>425.7957431705464</v>
       </c>
       <c r="N12" t="n">
-        <v>405.235122252556</v>
+        <v>81.96096955182676</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8930,19 +8930,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>405.0501108334613</v>
       </c>
       <c r="N14" t="n">
-        <v>313.8601233020912</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>193.7476873524081</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>425.7957431705462</v>
+        <v>102.5215904698175</v>
       </c>
       <c r="N15" t="n">
-        <v>81.96096955182665</v>
+        <v>405.2351222525562</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9167,22 +9167,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>410.4582470282082</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>445.8827295241999</v>
+        <v>270.1945713991197</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9249,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>61.68897177907735</v>
+        <v>61.68897177907832</v>
       </c>
       <c r="N18" t="n">
-        <v>446.0677409432948</v>
+        <v>446.0677409432953</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>38.32629540373537</v>
+        <v>445.8827295242005</v>
       </c>
       <c r="N20" t="n">
-        <v>437.2144998859274</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>91.67248453562874</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>44.57367219096761</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9486,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>61.68897177907735</v>
+        <v>61.68897177907832</v>
       </c>
       <c r="N21" t="n">
-        <v>446.0677409432948</v>
+        <v>446.0677409432953</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>38.3262954037364</v>
+        <v>445.8827295242004</v>
       </c>
       <c r="N23" t="n">
-        <v>437.2144998859278</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>260.7690997077024</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>44.57367219096761</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>61.68897177907692</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>446.0677409432951</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>149.0598753410832</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>50.98539079926846</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>228.5480258099352</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>44.57367219096759</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>28.41433837881837</v>
+        <v>350.1831539424986</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>144.5011927785547</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>260.9536770594929</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>28.41433837881905</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>45.35769589611564</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>50.98539079926813</v>
+        <v>50.98539079927049</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>28.41433837881905</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>306.1264683355811</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>50.985390799269</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>412.7515020184667</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>73.6603247042915</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>28.41433837881905</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>50.98539079926994</v>
+        <v>115.346513969116</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>44.57367219096761</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>306.1264683355809</v>
       </c>
       <c r="M39" t="n">
-        <v>28.41433837881905</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>50.98539079927048</v>
       </c>
       <c r="L41" t="n">
-        <v>144.5011927785547</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>28.41433837881905</v>
+        <v>453.3687634456437</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>50.985390799269</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>424.9181110993151</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>28.41433837881905</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0354329951718</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>322.9080803277992</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>59.2400761291486</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>322.1046087365804</v>
       </c>
       <c r="F11" t="n">
-        <v>347.0502844060301</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>352.7545617465137</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>251.7681139687395</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>151.3527190482554</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>191.3020984175199</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>18.83796113648535</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>326.4121773203722</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66.2958304572397</v>
+        <v>88.78971168253099</v>
       </c>
       <c r="E13" t="n">
-        <v>86.60820131088778</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>85.59528668724985</v>
+        <v>85.59528668724988</v>
       </c>
       <c r="G13" t="n">
         <v>106.9440366306246</v>
       </c>
       <c r="H13" t="n">
-        <v>91.54399843061799</v>
+        <v>91.54399843061805</v>
       </c>
       <c r="I13" t="n">
-        <v>58.90045863483693</v>
+        <v>58.90045863483697</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.55887399069136</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.555446094905932</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>36.78901689854418</v>
       </c>
       <c r="D14" t="n">
-        <v>59.24007612914846</v>
+        <v>294.8572802850016</v>
       </c>
       <c r="E14" t="n">
         <v>322.1046087365804</v>
       </c>
       <c r="F14" t="n">
-        <v>347.0502844060301</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>352.7545617465137</v>
       </c>
       <c r="H14" t="n">
-        <v>251.7681139687395</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>326.4121773203722</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>84.45015540533291</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>88.78971168253096</v>
+        <v>88.78971168253099</v>
       </c>
       <c r="E16" t="n">
-        <v>86.60820131088778</v>
+        <v>86.60820131088781</v>
       </c>
       <c r="F16" t="n">
-        <v>85.59528668724985</v>
+        <v>63.10140546195927</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>106.9440366306246</v>
       </c>
       <c r="H16" t="n">
-        <v>91.54399843061802</v>
+        <v>91.54399843061805</v>
       </c>
       <c r="I16" t="n">
-        <v>58.90045863483692</v>
+        <v>58.90045863483699</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>786818.2134673273</v>
+        <v>786818.2134673269</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>75692.18958317598</v>
+        <v>75692.18958317611</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>64500.58128932484</v>
+        <v>64500.58128932485</v>
       </c>
       <c r="M3" t="n">
-        <v>162664.4298454395</v>
+        <v>162664.4298454394</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9826.410520544941</v>
+        <v>9826.410520545078</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26430,31 +26430,31 @@
         <v>127623.8435131888</v>
       </c>
       <c r="G4" t="n">
-        <v>192153.9731338959</v>
+        <v>192153.973133896</v>
       </c>
       <c r="H4" t="n">
-        <v>192153.9731338959</v>
+        <v>192153.973133896</v>
       </c>
       <c r="I4" t="n">
         <v>192153.973133896</v>
       </c>
       <c r="J4" t="n">
-        <v>177787.8158687971</v>
+        <v>177787.8158687972</v>
       </c>
       <c r="K4" t="n">
-        <v>177787.8158687971</v>
+        <v>177787.8158687972</v>
       </c>
       <c r="L4" t="n">
-        <v>177787.8158687971</v>
+        <v>177787.8158687972</v>
       </c>
       <c r="M4" t="n">
-        <v>177787.8158687971</v>
+        <v>177787.8158687972</v>
       </c>
       <c r="N4" t="n">
-        <v>177787.8158687971</v>
+        <v>177787.8158687972</v>
       </c>
       <c r="O4" t="n">
-        <v>177787.8158687971</v>
+        <v>177787.8158687972</v>
       </c>
       <c r="P4" t="n">
         <v>177787.8158687972</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>59478.81547492727</v>
+        <v>59478.81547492726</v>
       </c>
       <c r="F5" t="n">
-        <v>59478.81547492727</v>
+        <v>59478.81547492726</v>
       </c>
       <c r="G5" t="n">
+        <v>68739.56290183951</v>
+      </c>
+      <c r="H5" t="n">
+        <v>68739.56290183951</v>
+      </c>
+      <c r="I5" t="n">
         <v>68739.5629018395</v>
-      </c>
-      <c r="H5" t="n">
-        <v>68739.5629018395</v>
-      </c>
-      <c r="I5" t="n">
-        <v>68739.56290183951</v>
       </c>
       <c r="J5" t="n">
         <v>77222.04280918706</v>
@@ -26497,7 +26497,7 @@
         <v>77222.04280918706</v>
       </c>
       <c r="L5" t="n">
-        <v>77222.04280918704</v>
+        <v>77222.04280918706</v>
       </c>
       <c r="M5" t="n">
         <v>77222.04280918706</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-453775.3688895312</v>
+        <v>-453779.7824673994</v>
       </c>
       <c r="C6" t="n">
-        <v>-453775.3688895312</v>
+        <v>-453779.7824673994</v>
       </c>
       <c r="D6" t="n">
-        <v>-453775.3688895312</v>
+        <v>-453779.7824673994</v>
       </c>
       <c r="E6" t="n">
-        <v>-973920.8724554434</v>
+        <v>-974215.8763355246</v>
       </c>
       <c r="F6" t="n">
-        <v>-187102.6589881161</v>
+        <v>-187397.6628681976</v>
       </c>
       <c r="G6" t="n">
-        <v>-336585.7256189114</v>
+        <v>-336585.7256189116</v>
       </c>
       <c r="H6" t="n">
-        <v>-260893.5360357354</v>
+        <v>-260893.5360357355</v>
       </c>
       <c r="I6" t="n">
         <v>-260893.5360357355</v>
@@ -26549,7 +26549,7 @@
         <v>-255009.8586779842</v>
       </c>
       <c r="L6" t="n">
-        <v>-319510.439967309</v>
+        <v>-319510.4399673091</v>
       </c>
       <c r="M6" t="n">
         <v>-417674.2885234237</v>
@@ -26558,10 +26558,10 @@
         <v>-255009.8586779842</v>
       </c>
       <c r="O6" t="n">
-        <v>-264836.2691985291</v>
+        <v>-264836.2691985293</v>
       </c>
       <c r="P6" t="n">
-        <v>-255009.8586779843</v>
+        <v>-255009.8586779844</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="F2" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="G2" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H2" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I2" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="J2" t="n">
         <v>80.62572661165606</v>
@@ -26713,16 +26713,16 @@
         <v>80.62572661165606</v>
       </c>
       <c r="L2" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="M2" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="N2" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="O2" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="P2" t="n">
         <v>80.62572661165613</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
       <c r="F3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
       <c r="G3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
       <c r="H3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
       <c r="I3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
       <c r="J3" t="n">
-        <v>677.2005901938143</v>
+        <v>677.200590193814</v>
       </c>
       <c r="K3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
       <c r="L3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
       <c r="M3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
       <c r="N3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
       <c r="O3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
       <c r="P3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
     </row>
     <row r="4">
@@ -26802,10 +26802,10 @@
         <v>652.7360309041566</v>
       </c>
       <c r="G4" t="n">
-        <v>693.5686495948953</v>
+        <v>693.5686495948958</v>
       </c>
       <c r="H4" t="n">
-        <v>693.5686495948953</v>
+        <v>693.5686495948958</v>
       </c>
       <c r="I4" t="n">
         <v>693.5686495948956</v>
@@ -26817,13 +26817,13 @@
         <v>915.8050284941874</v>
       </c>
       <c r="L4" t="n">
-        <v>915.8050284941871</v>
+        <v>915.8050284941874</v>
       </c>
       <c r="M4" t="n">
         <v>915.8050284941874</v>
       </c>
       <c r="N4" t="n">
-        <v>915.8050284941875</v>
+        <v>915.8050284941874</v>
       </c>
       <c r="O4" t="n">
         <v>915.8050284941874</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>677.2005901938142</v>
+        <v>677.2005901938139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>40.83261869073874</v>
+        <v>40.8326186907392</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.7360309041568</v>
+        <v>652.7360309041566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.83261869073863</v>
+        <v>40.8326186907392</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.83261869073874</v>
+        <v>40.8326186907392</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="C11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="D11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="E11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="F11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="G11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="H11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="I11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="T11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="U11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="V11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="W11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="X11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="Y11" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="C13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="D13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="E13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="F13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="G13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="H13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="I13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="J13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="K13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="L13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="M13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="N13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="O13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="P13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="R13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="S13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="T13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="U13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="V13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="W13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="X13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="Y13" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="C14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="D14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="E14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="F14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="G14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="H14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="I14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="T14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="U14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="V14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="W14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="X14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="C16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="D16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="E16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="F16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="G16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="H16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="I16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="J16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="K16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="L16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="M16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="N16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="O16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="P16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="R16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="S16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="T16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="U16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="V16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="W16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="X16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
       <c r="Y16" t="n">
-        <v>59.82576133568139</v>
+        <v>59.82576133568136</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="C17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="D17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="E17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="F17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I17" t="n">
-        <v>105.5200071444882</v>
+        <v>105.5200071444883</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="T17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="U17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="V17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="W17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="X17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y17" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.2226755423555</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="D19" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="E19" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="F19" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G19" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I19" t="n">
         <v>118.7262199705183</v>
       </c>
       <c r="J19" t="n">
-        <v>7.021655691471267</v>
+        <v>7.021655691471295</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.3846353263727</v>
       </c>
       <c r="S19" t="n">
-        <v>140.4514879473375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="V19" t="n">
-        <v>140.4514879473375</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="X19" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>129.222675542356</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="C20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="D20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="E20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="F20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I20" t="n">
-        <v>105.5200071444882</v>
+        <v>105.5200071444883</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="T20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="U20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="V20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="W20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="X20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y20" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.4514879473375</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="D22" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="E22" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="F22" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G22" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I22" t="n">
         <v>118.7262199705183</v>
       </c>
       <c r="J22" t="n">
-        <v>7.021655691471267</v>
+        <v>7.021655691471295</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.3846353263727</v>
       </c>
       <c r="S22" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="T22" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="U22" t="n">
-        <v>140.4514879473375</v>
+        <v>129.2226755423558</v>
       </c>
       <c r="V22" t="n">
-        <v>140.4514879473375</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="X22" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y22" t="n">
-        <v>111.1558229213906</v>
+        <v>140.4514879473374</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="C23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="D23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="E23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="F23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I23" t="n">
-        <v>105.5200071444882</v>
+        <v>105.5200071444883</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="T23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="U23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="V23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="W23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="X23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y23" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="C25" t="n">
-        <v>140.4514879473375</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>111.1558229213906</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="F25" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="G25" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="I25" t="n">
         <v>118.7262199705183</v>
       </c>
       <c r="J25" t="n">
-        <v>7.021655691471267</v>
+        <v>7.021655691471295</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.3846353263727</v>
       </c>
       <c r="S25" t="n">
-        <v>140.4514879473375</v>
+        <v>129.2226755423562</v>
       </c>
       <c r="T25" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="U25" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="V25" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="X25" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.4514879473375</v>
+        <v>140.4514879473374</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="C32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="D32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="E32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="F32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="G32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="H32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="I32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="T32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="U32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="V32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="W32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="X32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="C34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="D34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="E34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="F34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="G34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="H34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="I34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="J34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="K34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="L34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="M34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="N34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="O34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="P34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="R34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="S34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="T34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="U34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="V34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="W34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="X34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165606</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="C35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="D35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="E35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="F35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="G35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="H35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="I35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="T35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="U35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="V35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="W35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="X35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="C37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="D37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="E37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="F37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="G37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="H37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="I37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="J37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="K37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="L37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="M37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="N37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="O37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="P37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="R37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="S37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="T37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="U37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="V37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="W37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="X37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.62572661165606</v>
+        <v>80.62572661165608</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="C38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="D38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="E38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="F38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="G38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="H38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="I38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="T38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="U38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="V38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="W38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="X38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="C40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="D40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="E40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="F40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="G40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="H40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="I40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="J40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="K40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="L40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="M40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="N40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="O40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="P40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="R40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="S40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="T40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="U40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="V40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="W40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="X40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.62572661165603</v>
+        <v>80.62572661165608</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="C41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="D41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="E41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="F41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="G41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="H41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="I41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="T41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="U41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="V41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="W41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="X41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="C43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="D43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="E43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="F43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="G43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="H43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="I43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="J43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="K43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="L43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="M43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="N43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="O43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="P43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165595</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="R43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="S43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="T43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="U43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="V43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="W43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="X43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.62572661165605</v>
+        <v>80.62572661165608</v>
       </c>
     </row>
     <row r="44">
@@ -30882,7 +30882,7 @@
         <v>80.62572661165613</v>
       </c>
       <c r="L46" t="n">
-        <v>80.62572661165413</v>
+        <v>80.62572661165613</v>
       </c>
       <c r="M46" t="n">
         <v>80.62572661165613</v>
@@ -30894,7 +30894,7 @@
         <v>80.62572661165613</v>
       </c>
       <c r="P46" t="n">
-        <v>80.62572661165613</v>
+        <v>80.62572661165458</v>
       </c>
       <c r="Q46" t="n">
         <v>80.62572661165613</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.722414432939954</v>
+        <v>2.722414432939953</v>
       </c>
       <c r="H11" t="n">
         <v>27.88092681134631</v>
@@ -31759,40 +31759,40 @@
         <v>104.9558824259177</v>
       </c>
       <c r="J11" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K11" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L11" t="n">
-        <v>429.6174156261722</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M11" t="n">
-        <v>478.0321532979681</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N11" t="n">
-        <v>485.7672133055588</v>
+        <v>485.7672133055586</v>
       </c>
       <c r="O11" t="n">
-        <v>458.6962047880121</v>
+        <v>458.6962047880119</v>
       </c>
       <c r="P11" t="n">
-        <v>391.4865984748069</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q11" t="n">
-        <v>293.9901315951447</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R11" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S11" t="n">
-        <v>62.03701889061927</v>
+        <v>62.03701889061925</v>
       </c>
       <c r="T11" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351962</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.456620137398015</v>
       </c>
       <c r="H12" t="n">
-        <v>14.06788395855452</v>
+        <v>14.06788395855451</v>
       </c>
       <c r="I12" t="n">
-        <v>50.15117578322115</v>
+        <v>50.15117578322113</v>
       </c>
       <c r="J12" t="n">
         <v>137.6186595600467</v>
@@ -31844,34 +31844,34 @@
         <v>235.2122087657137</v>
       </c>
       <c r="L12" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M12" t="n">
-        <v>369.0743216556286</v>
+        <v>369.0743216556285</v>
       </c>
       <c r="N12" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349337</v>
       </c>
       <c r="O12" t="n">
-        <v>346.5669850589041</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P12" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q12" t="n">
         <v>185.936282801894</v>
       </c>
       <c r="R12" t="n">
-        <v>90.43822221493997</v>
+        <v>90.43822221493994</v>
       </c>
       <c r="S12" t="n">
         <v>27.0560801836868</v>
       </c>
       <c r="T12" t="n">
-        <v>5.871201343284103</v>
+        <v>5.871201343284102</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09583027219723789</v>
+        <v>0.09583027219723786</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,28 +31911,28 @@
         <v>1.221181392152779</v>
       </c>
       <c r="H13" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I13" t="n">
-        <v>36.72425495673996</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J13" t="n">
-        <v>86.33752442520151</v>
+        <v>86.33752442520148</v>
       </c>
       <c r="K13" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701137</v>
       </c>
       <c r="L13" t="n">
         <v>181.5563680660596</v>
       </c>
       <c r="M13" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N13" t="n">
-        <v>186.8740579464341</v>
+        <v>186.874057946434</v>
       </c>
       <c r="O13" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P13" t="n">
         <v>147.6963385563688</v>
@@ -31941,16 +31941,16 @@
         <v>102.2572891192659</v>
       </c>
       <c r="R13" t="n">
-        <v>54.90875605079678</v>
+        <v>54.90875605079676</v>
       </c>
       <c r="S13" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T13" t="n">
-        <v>5.217775039198238</v>
+        <v>5.217775039198236</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06660989411742441</v>
+        <v>0.06660989411742439</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.722414432939954</v>
+        <v>2.722414432939953</v>
       </c>
       <c r="H14" t="n">
         <v>27.88092681134631</v>
@@ -31996,40 +31996,40 @@
         <v>104.9558824259177</v>
       </c>
       <c r="J14" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K14" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L14" t="n">
-        <v>429.6174156261722</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M14" t="n">
-        <v>478.0321532979681</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N14" t="n">
-        <v>485.7672133055588</v>
+        <v>485.7672133055586</v>
       </c>
       <c r="O14" t="n">
-        <v>458.6962047880121</v>
+        <v>458.6962047880119</v>
       </c>
       <c r="P14" t="n">
-        <v>391.4865984748069</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q14" t="n">
-        <v>293.9901315951447</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R14" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S14" t="n">
-        <v>62.03701889061927</v>
+        <v>62.03701889061925</v>
       </c>
       <c r="T14" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351962</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.456620137398015</v>
       </c>
       <c r="H15" t="n">
-        <v>14.06788395855452</v>
+        <v>14.06788395855451</v>
       </c>
       <c r="I15" t="n">
-        <v>50.15117578322115</v>
+        <v>50.15117578322113</v>
       </c>
       <c r="J15" t="n">
         <v>137.6186595600467</v>
@@ -32081,34 +32081,34 @@
         <v>235.2122087657137</v>
       </c>
       <c r="L15" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M15" t="n">
-        <v>369.0743216556286</v>
+        <v>369.0743216556285</v>
       </c>
       <c r="N15" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349337</v>
       </c>
       <c r="O15" t="n">
-        <v>346.5669850589041</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P15" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q15" t="n">
         <v>185.936282801894</v>
       </c>
       <c r="R15" t="n">
-        <v>90.43822221493997</v>
+        <v>90.43822221493994</v>
       </c>
       <c r="S15" t="n">
         <v>27.0560801836868</v>
       </c>
       <c r="T15" t="n">
-        <v>5.871201343284103</v>
+        <v>5.871201343284102</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09583027219723789</v>
+        <v>0.09583027219723786</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,28 +32148,28 @@
         <v>1.221181392152779</v>
       </c>
       <c r="H16" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I16" t="n">
-        <v>36.72425495673996</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J16" t="n">
-        <v>86.33752442520151</v>
+        <v>86.33752442520148</v>
       </c>
       <c r="K16" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701137</v>
       </c>
       <c r="L16" t="n">
         <v>181.5563680660596</v>
       </c>
       <c r="M16" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N16" t="n">
-        <v>186.8740579464341</v>
+        <v>186.874057946434</v>
       </c>
       <c r="O16" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P16" t="n">
         <v>147.6963385563688</v>
@@ -32178,16 +32178,16 @@
         <v>102.2572891192659</v>
       </c>
       <c r="R16" t="n">
-        <v>54.90875605079678</v>
+        <v>54.90875605079676</v>
       </c>
       <c r="S16" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T16" t="n">
-        <v>5.217775039198238</v>
+        <v>5.217775039198236</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06660989411742441</v>
+        <v>0.06660989411742439</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.722414432939954</v>
+        <v>2.722414432939953</v>
       </c>
       <c r="H17" t="n">
         <v>27.88092681134631</v>
@@ -32233,40 +32233,40 @@
         <v>104.9558824259177</v>
       </c>
       <c r="J17" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K17" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L17" t="n">
-        <v>429.6174156261722</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M17" t="n">
-        <v>478.0321532979681</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N17" t="n">
-        <v>485.7672133055588</v>
+        <v>485.7672133055586</v>
       </c>
       <c r="O17" t="n">
-        <v>458.6962047880121</v>
+        <v>458.6962047880119</v>
       </c>
       <c r="P17" t="n">
-        <v>391.4865984748069</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q17" t="n">
-        <v>293.9901315951447</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R17" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S17" t="n">
-        <v>62.03701889061927</v>
+        <v>62.03701889061925</v>
       </c>
       <c r="T17" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351962</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.456620137398015</v>
       </c>
       <c r="H18" t="n">
-        <v>14.06788395855452</v>
+        <v>14.06788395855451</v>
       </c>
       <c r="I18" t="n">
-        <v>50.15117578322115</v>
+        <v>50.15117578322113</v>
       </c>
       <c r="J18" t="n">
         <v>137.6186595600467</v>
@@ -32318,34 +32318,34 @@
         <v>235.2122087657137</v>
       </c>
       <c r="L18" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M18" t="n">
-        <v>369.0743216556286</v>
+        <v>369.0743216556285</v>
       </c>
       <c r="N18" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349337</v>
       </c>
       <c r="O18" t="n">
-        <v>346.5669850589041</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P18" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q18" t="n">
         <v>185.936282801894</v>
       </c>
       <c r="R18" t="n">
-        <v>90.43822221493997</v>
+        <v>90.43822221493994</v>
       </c>
       <c r="S18" t="n">
         <v>27.0560801836868</v>
       </c>
       <c r="T18" t="n">
-        <v>5.871201343284103</v>
+        <v>5.871201343284102</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09583027219723789</v>
+        <v>0.09583027219723786</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,28 +32385,28 @@
         <v>1.221181392152779</v>
       </c>
       <c r="H19" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I19" t="n">
-        <v>36.72425495673996</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J19" t="n">
-        <v>86.33752442520151</v>
+        <v>86.33752442520148</v>
       </c>
       <c r="K19" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701137</v>
       </c>
       <c r="L19" t="n">
         <v>181.5563680660596</v>
       </c>
       <c r="M19" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N19" t="n">
-        <v>186.8740579464341</v>
+        <v>186.874057946434</v>
       </c>
       <c r="O19" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P19" t="n">
         <v>147.6963385563688</v>
@@ -32415,16 +32415,16 @@
         <v>102.2572891192659</v>
       </c>
       <c r="R19" t="n">
-        <v>54.90875605079678</v>
+        <v>54.90875605079676</v>
       </c>
       <c r="S19" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T19" t="n">
-        <v>5.217775039198238</v>
+        <v>5.217775039198236</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06660989411742441</v>
+        <v>0.06660989411742439</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.722414432939954</v>
+        <v>2.722414432939953</v>
       </c>
       <c r="H20" t="n">
         <v>27.88092681134631</v>
@@ -32470,40 +32470,40 @@
         <v>104.9558824259177</v>
       </c>
       <c r="J20" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K20" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L20" t="n">
-        <v>429.6174156261722</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M20" t="n">
-        <v>478.0321532979681</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N20" t="n">
-        <v>485.7672133055588</v>
+        <v>485.7672133055586</v>
       </c>
       <c r="O20" t="n">
-        <v>458.6962047880121</v>
+        <v>458.6962047880119</v>
       </c>
       <c r="P20" t="n">
-        <v>391.4865984748069</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q20" t="n">
-        <v>293.9901315951447</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R20" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S20" t="n">
-        <v>62.03701889061927</v>
+        <v>62.03701889061925</v>
       </c>
       <c r="T20" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351962</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.456620137398015</v>
       </c>
       <c r="H21" t="n">
-        <v>14.06788395855452</v>
+        <v>14.06788395855451</v>
       </c>
       <c r="I21" t="n">
-        <v>50.15117578322115</v>
+        <v>50.15117578322113</v>
       </c>
       <c r="J21" t="n">
         <v>137.6186595600467</v>
@@ -32555,34 +32555,34 @@
         <v>235.2122087657137</v>
       </c>
       <c r="L21" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M21" t="n">
-        <v>369.0743216556286</v>
+        <v>369.0743216556285</v>
       </c>
       <c r="N21" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349337</v>
       </c>
       <c r="O21" t="n">
-        <v>346.5669850589041</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P21" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q21" t="n">
         <v>185.936282801894</v>
       </c>
       <c r="R21" t="n">
-        <v>90.43822221493997</v>
+        <v>90.43822221493994</v>
       </c>
       <c r="S21" t="n">
         <v>27.0560801836868</v>
       </c>
       <c r="T21" t="n">
-        <v>5.871201343284103</v>
+        <v>5.871201343284102</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09583027219723789</v>
+        <v>0.09583027219723786</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>1.221181392152779</v>
       </c>
       <c r="H22" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I22" t="n">
-        <v>36.72425495673996</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J22" t="n">
-        <v>86.33752442520151</v>
+        <v>86.33752442520148</v>
       </c>
       <c r="K22" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701137</v>
       </c>
       <c r="L22" t="n">
         <v>181.5563680660596</v>
       </c>
       <c r="M22" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N22" t="n">
-        <v>186.8740579464341</v>
+        <v>186.874057946434</v>
       </c>
       <c r="O22" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P22" t="n">
         <v>147.6963385563688</v>
@@ -32652,16 +32652,16 @@
         <v>102.2572891192659</v>
       </c>
       <c r="R22" t="n">
-        <v>54.90875605079678</v>
+        <v>54.90875605079676</v>
       </c>
       <c r="S22" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T22" t="n">
-        <v>5.217775039198238</v>
+        <v>5.217775039198236</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06660989411742441</v>
+        <v>0.06660989411742439</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.722414432939954</v>
+        <v>2.722414432939953</v>
       </c>
       <c r="H23" t="n">
         <v>27.88092681134631</v>
@@ -32707,40 +32707,40 @@
         <v>104.9558824259177</v>
       </c>
       <c r="J23" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K23" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L23" t="n">
-        <v>429.6174156261722</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M23" t="n">
-        <v>478.0321532979681</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N23" t="n">
-        <v>485.7672133055588</v>
+        <v>485.7672133055586</v>
       </c>
       <c r="O23" t="n">
-        <v>458.6962047880121</v>
+        <v>458.6962047880119</v>
       </c>
       <c r="P23" t="n">
-        <v>391.4865984748069</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q23" t="n">
-        <v>293.9901315951447</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R23" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S23" t="n">
-        <v>62.03701889061927</v>
+        <v>62.03701889061925</v>
       </c>
       <c r="T23" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351962</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>1.456620137398015</v>
       </c>
       <c r="H24" t="n">
-        <v>14.06788395855452</v>
+        <v>14.06788395855451</v>
       </c>
       <c r="I24" t="n">
-        <v>50.15117578322115</v>
+        <v>50.15117578322113</v>
       </c>
       <c r="J24" t="n">
         <v>137.6186595600467</v>
@@ -32792,34 +32792,34 @@
         <v>235.2122087657137</v>
       </c>
       <c r="L24" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M24" t="n">
-        <v>369.0743216556286</v>
+        <v>369.0743216556285</v>
       </c>
       <c r="N24" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349337</v>
       </c>
       <c r="O24" t="n">
-        <v>346.5669850589041</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P24" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q24" t="n">
         <v>185.936282801894</v>
       </c>
       <c r="R24" t="n">
-        <v>90.43822221493997</v>
+        <v>90.43822221493994</v>
       </c>
       <c r="S24" t="n">
         <v>27.0560801836868</v>
       </c>
       <c r="T24" t="n">
-        <v>5.871201343284103</v>
+        <v>5.871201343284102</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09583027219723789</v>
+        <v>0.09583027219723786</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,28 +32859,28 @@
         <v>1.221181392152779</v>
       </c>
       <c r="H25" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I25" t="n">
-        <v>36.72425495673996</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J25" t="n">
-        <v>86.33752442520151</v>
+        <v>86.33752442520148</v>
       </c>
       <c r="K25" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701137</v>
       </c>
       <c r="L25" t="n">
         <v>181.5563680660596</v>
       </c>
       <c r="M25" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N25" t="n">
-        <v>186.8740579464341</v>
+        <v>186.874057946434</v>
       </c>
       <c r="O25" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P25" t="n">
         <v>147.6963385563688</v>
@@ -32889,16 +32889,16 @@
         <v>102.2572891192659</v>
       </c>
       <c r="R25" t="n">
-        <v>54.90875605079678</v>
+        <v>54.90875605079676</v>
       </c>
       <c r="S25" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T25" t="n">
-        <v>5.217775039198238</v>
+        <v>5.217775039198236</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06660989411742441</v>
+        <v>0.06660989411742439</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.722414432939955</v>
+        <v>2.722414432939954</v>
       </c>
       <c r="H26" t="n">
-        <v>27.88092681134632</v>
+        <v>27.88092681134631</v>
       </c>
       <c r="I26" t="n">
         <v>104.9558824259177</v>
       </c>
       <c r="J26" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K26" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L26" t="n">
-        <v>429.6174156261723</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M26" t="n">
-        <v>478.0321532979682</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N26" t="n">
-        <v>485.7672133055589</v>
+        <v>485.7672133055587</v>
       </c>
       <c r="O26" t="n">
-        <v>458.6962047880122</v>
+        <v>458.696204788012</v>
       </c>
       <c r="P26" t="n">
-        <v>391.486598474807</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q26" t="n">
-        <v>293.9901315951448</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R26" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S26" t="n">
-        <v>62.03701889061928</v>
+        <v>62.03701889061926</v>
       </c>
       <c r="T26" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U26" t="n">
         <v>0.2177931546351963</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.456620137398016</v>
+        <v>1.456620137398015</v>
       </c>
       <c r="H27" t="n">
         <v>14.06788395855452</v>
       </c>
       <c r="I27" t="n">
-        <v>50.15117578322116</v>
+        <v>50.15117578322114</v>
       </c>
       <c r="J27" t="n">
-        <v>137.6186595600468</v>
+        <v>137.6186595600467</v>
       </c>
       <c r="K27" t="n">
-        <v>235.2122087657138</v>
+        <v>235.2122087657137</v>
       </c>
       <c r="L27" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M27" t="n">
-        <v>369.0743216556288</v>
+        <v>369.0743216556286</v>
       </c>
       <c r="N27" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349338</v>
       </c>
       <c r="O27" t="n">
-        <v>346.5669850589042</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P27" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q27" t="n">
-        <v>185.9362828018941</v>
+        <v>185.936282801894</v>
       </c>
       <c r="R27" t="n">
-        <v>90.43822221493998</v>
+        <v>90.43822221493996</v>
       </c>
       <c r="S27" t="n">
-        <v>27.05608018368681</v>
+        <v>27.0560801836868</v>
       </c>
       <c r="T27" t="n">
-        <v>5.871201343284104</v>
+        <v>5.871201343284103</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09583027219723791</v>
+        <v>0.09583027219723787</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.22118139215278</v>
+        <v>1.221181392152779</v>
       </c>
       <c r="H28" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I28" t="n">
-        <v>36.72425495673997</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J28" t="n">
-        <v>86.33752442520152</v>
+        <v>86.33752442520149</v>
       </c>
       <c r="K28" t="n">
         <v>141.8790744701138</v>
       </c>
       <c r="L28" t="n">
-        <v>181.5563680660597</v>
+        <v>181.5563680660596</v>
       </c>
       <c r="M28" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N28" t="n">
         <v>186.8740579464341</v>
       </c>
       <c r="O28" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P28" t="n">
-        <v>147.6963385563689</v>
+        <v>147.6963385563688</v>
       </c>
       <c r="Q28" t="n">
         <v>102.2572891192659</v>
       </c>
       <c r="R28" t="n">
-        <v>54.90875605079679</v>
+        <v>54.90875605079677</v>
       </c>
       <c r="S28" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T28" t="n">
-        <v>5.217775039198239</v>
+        <v>5.217775039198237</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06660989411742442</v>
+        <v>0.06660989411742441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.722414432939954</v>
+        <v>2.722414432939953</v>
       </c>
       <c r="H29" t="n">
         <v>27.88092681134631</v>
@@ -33181,40 +33181,40 @@
         <v>104.9558824259177</v>
       </c>
       <c r="J29" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K29" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L29" t="n">
-        <v>429.6174156261722</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M29" t="n">
-        <v>478.0321532979681</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N29" t="n">
-        <v>485.7672133055588</v>
+        <v>485.7672133055586</v>
       </c>
       <c r="O29" t="n">
-        <v>458.6962047880121</v>
+        <v>458.6962047880119</v>
       </c>
       <c r="P29" t="n">
-        <v>391.4865984748069</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q29" t="n">
-        <v>293.9901315951447</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R29" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S29" t="n">
-        <v>62.03701889061927</v>
+        <v>62.03701889061925</v>
       </c>
       <c r="T29" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351962</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>1.456620137398015</v>
       </c>
       <c r="H30" t="n">
-        <v>14.06788395855452</v>
+        <v>14.06788395855451</v>
       </c>
       <c r="I30" t="n">
-        <v>50.15117578322115</v>
+        <v>50.15117578322113</v>
       </c>
       <c r="J30" t="n">
         <v>137.6186595600467</v>
@@ -33266,34 +33266,34 @@
         <v>235.2122087657137</v>
       </c>
       <c r="L30" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M30" t="n">
-        <v>369.0743216556286</v>
+        <v>369.0743216556285</v>
       </c>
       <c r="N30" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349337</v>
       </c>
       <c r="O30" t="n">
-        <v>346.5669850589041</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P30" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q30" t="n">
         <v>185.936282801894</v>
       </c>
       <c r="R30" t="n">
-        <v>90.43822221493997</v>
+        <v>90.43822221493994</v>
       </c>
       <c r="S30" t="n">
         <v>27.0560801836868</v>
       </c>
       <c r="T30" t="n">
-        <v>5.871201343284103</v>
+        <v>5.871201343284102</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09583027219723789</v>
+        <v>0.09583027219723786</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,28 +33333,28 @@
         <v>1.221181392152779</v>
       </c>
       <c r="H31" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I31" t="n">
-        <v>36.72425495673996</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J31" t="n">
-        <v>86.33752442520151</v>
+        <v>86.33752442520148</v>
       </c>
       <c r="K31" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701137</v>
       </c>
       <c r="L31" t="n">
         <v>181.5563680660596</v>
       </c>
       <c r="M31" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N31" t="n">
-        <v>186.8740579464341</v>
+        <v>186.874057946434</v>
       </c>
       <c r="O31" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P31" t="n">
         <v>147.6963385563688</v>
@@ -33363,16 +33363,16 @@
         <v>102.2572891192659</v>
       </c>
       <c r="R31" t="n">
-        <v>54.90875605079678</v>
+        <v>54.90875605079676</v>
       </c>
       <c r="S31" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T31" t="n">
-        <v>5.217775039198238</v>
+        <v>5.217775039198236</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06660989411742441</v>
+        <v>0.06660989411742439</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.722414432939954</v>
+        <v>2.722414432939953</v>
       </c>
       <c r="H32" t="n">
         <v>27.88092681134631</v>
@@ -33418,40 +33418,40 @@
         <v>104.9558824259177</v>
       </c>
       <c r="J32" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K32" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L32" t="n">
-        <v>429.6174156261722</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M32" t="n">
-        <v>478.0321532979681</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N32" t="n">
-        <v>485.7672133055588</v>
+        <v>485.7672133055586</v>
       </c>
       <c r="O32" t="n">
-        <v>458.6962047880121</v>
+        <v>458.6962047880119</v>
       </c>
       <c r="P32" t="n">
-        <v>391.4865984748069</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.9901315951447</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R32" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S32" t="n">
-        <v>62.03701889061927</v>
+        <v>62.03701889061925</v>
       </c>
       <c r="T32" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351962</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33491,10 @@
         <v>1.456620137398015</v>
       </c>
       <c r="H33" t="n">
-        <v>14.06788395855452</v>
+        <v>14.06788395855451</v>
       </c>
       <c r="I33" t="n">
-        <v>50.15117578322115</v>
+        <v>50.15117578322113</v>
       </c>
       <c r="J33" t="n">
         <v>137.6186595600467</v>
@@ -33503,34 +33503,34 @@
         <v>235.2122087657137</v>
       </c>
       <c r="L33" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M33" t="n">
-        <v>369.0743216556286</v>
+        <v>369.0743216556285</v>
       </c>
       <c r="N33" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349337</v>
       </c>
       <c r="O33" t="n">
-        <v>346.5669850589041</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P33" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q33" t="n">
         <v>185.936282801894</v>
       </c>
       <c r="R33" t="n">
-        <v>90.43822221493997</v>
+        <v>90.43822221493994</v>
       </c>
       <c r="S33" t="n">
         <v>27.0560801836868</v>
       </c>
       <c r="T33" t="n">
-        <v>5.871201343284103</v>
+        <v>5.871201343284102</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09583027219723789</v>
+        <v>0.09583027219723786</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,28 +33570,28 @@
         <v>1.221181392152779</v>
       </c>
       <c r="H34" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I34" t="n">
-        <v>36.72425495673996</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J34" t="n">
-        <v>86.33752442520151</v>
+        <v>86.33752442520148</v>
       </c>
       <c r="K34" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701137</v>
       </c>
       <c r="L34" t="n">
         <v>181.5563680660596</v>
       </c>
       <c r="M34" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N34" t="n">
-        <v>186.8740579464341</v>
+        <v>186.874057946434</v>
       </c>
       <c r="O34" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P34" t="n">
         <v>147.6963385563688</v>
@@ -33600,16 +33600,16 @@
         <v>102.2572891192659</v>
       </c>
       <c r="R34" t="n">
-        <v>54.90875605079678</v>
+        <v>54.90875605079676</v>
       </c>
       <c r="S34" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T34" t="n">
-        <v>5.217775039198238</v>
+        <v>5.217775039198236</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06660989411742441</v>
+        <v>0.06660989411742439</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.722414432939954</v>
+        <v>2.722414432939953</v>
       </c>
       <c r="H35" t="n">
         <v>27.88092681134631</v>
@@ -33655,40 +33655,40 @@
         <v>104.9558824259177</v>
       </c>
       <c r="J35" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K35" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L35" t="n">
-        <v>429.6174156261722</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M35" t="n">
-        <v>478.0321532979681</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N35" t="n">
-        <v>485.7672133055588</v>
+        <v>485.7672133055586</v>
       </c>
       <c r="O35" t="n">
-        <v>458.6962047880121</v>
+        <v>458.6962047880119</v>
       </c>
       <c r="P35" t="n">
-        <v>391.4865984748069</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q35" t="n">
-        <v>293.9901315951447</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R35" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S35" t="n">
-        <v>62.03701889061927</v>
+        <v>62.03701889061925</v>
       </c>
       <c r="T35" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351962</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>1.456620137398015</v>
       </c>
       <c r="H36" t="n">
-        <v>14.06788395855452</v>
+        <v>14.06788395855451</v>
       </c>
       <c r="I36" t="n">
-        <v>50.15117578322115</v>
+        <v>50.15117578322113</v>
       </c>
       <c r="J36" t="n">
         <v>137.6186595600467</v>
@@ -33740,34 +33740,34 @@
         <v>235.2122087657137</v>
       </c>
       <c r="L36" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M36" t="n">
-        <v>369.0743216556286</v>
+        <v>369.0743216556285</v>
       </c>
       <c r="N36" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349337</v>
       </c>
       <c r="O36" t="n">
-        <v>346.5669850589041</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P36" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q36" t="n">
         <v>185.936282801894</v>
       </c>
       <c r="R36" t="n">
-        <v>90.43822221493997</v>
+        <v>90.43822221493994</v>
       </c>
       <c r="S36" t="n">
         <v>27.0560801836868</v>
       </c>
       <c r="T36" t="n">
-        <v>5.871201343284103</v>
+        <v>5.871201343284102</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09583027219723789</v>
+        <v>0.09583027219723786</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,28 +33807,28 @@
         <v>1.221181392152779</v>
       </c>
       <c r="H37" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I37" t="n">
-        <v>36.72425495673996</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J37" t="n">
-        <v>86.33752442520151</v>
+        <v>86.33752442520148</v>
       </c>
       <c r="K37" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701137</v>
       </c>
       <c r="L37" t="n">
         <v>181.5563680660596</v>
       </c>
       <c r="M37" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N37" t="n">
-        <v>186.8740579464341</v>
+        <v>186.874057946434</v>
       </c>
       <c r="O37" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P37" t="n">
         <v>147.6963385563688</v>
@@ -33837,16 +33837,16 @@
         <v>102.2572891192659</v>
       </c>
       <c r="R37" t="n">
-        <v>54.90875605079678</v>
+        <v>54.90875605079676</v>
       </c>
       <c r="S37" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T37" t="n">
-        <v>5.217775039198238</v>
+        <v>5.217775039198236</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06660989411742441</v>
+        <v>0.06660989411742439</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.722414432939954</v>
+        <v>2.722414432939953</v>
       </c>
       <c r="H38" t="n">
         <v>27.88092681134631</v>
@@ -33892,40 +33892,40 @@
         <v>104.9558824259177</v>
       </c>
       <c r="J38" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K38" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L38" t="n">
-        <v>429.6174156261722</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M38" t="n">
-        <v>478.0321532979681</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N38" t="n">
-        <v>485.7672133055588</v>
+        <v>485.7672133055586</v>
       </c>
       <c r="O38" t="n">
-        <v>458.6962047880121</v>
+        <v>458.6962047880119</v>
       </c>
       <c r="P38" t="n">
-        <v>391.4865984748069</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q38" t="n">
-        <v>293.9901315951447</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R38" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S38" t="n">
-        <v>62.03701889061927</v>
+        <v>62.03701889061925</v>
       </c>
       <c r="T38" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351962</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.456620137398015</v>
       </c>
       <c r="H39" t="n">
-        <v>14.06788395855452</v>
+        <v>14.06788395855451</v>
       </c>
       <c r="I39" t="n">
-        <v>50.15117578322115</v>
+        <v>50.15117578322113</v>
       </c>
       <c r="J39" t="n">
         <v>137.6186595600467</v>
@@ -33977,34 +33977,34 @@
         <v>235.2122087657137</v>
       </c>
       <c r="L39" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M39" t="n">
-        <v>369.0743216556286</v>
+        <v>369.0743216556285</v>
       </c>
       <c r="N39" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349337</v>
       </c>
       <c r="O39" t="n">
-        <v>346.5669850589041</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P39" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q39" t="n">
         <v>185.936282801894</v>
       </c>
       <c r="R39" t="n">
-        <v>90.43822221493997</v>
+        <v>90.43822221493994</v>
       </c>
       <c r="S39" t="n">
         <v>27.0560801836868</v>
       </c>
       <c r="T39" t="n">
-        <v>5.871201343284103</v>
+        <v>5.871201343284102</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09583027219723789</v>
+        <v>0.09583027219723786</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,28 +34044,28 @@
         <v>1.221181392152779</v>
       </c>
       <c r="H40" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I40" t="n">
-        <v>36.72425495673996</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J40" t="n">
-        <v>86.33752442520151</v>
+        <v>86.33752442520148</v>
       </c>
       <c r="K40" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701137</v>
       </c>
       <c r="L40" t="n">
         <v>181.5563680660596</v>
       </c>
       <c r="M40" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N40" t="n">
-        <v>186.8740579464341</v>
+        <v>186.874057946434</v>
       </c>
       <c r="O40" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P40" t="n">
         <v>147.6963385563688</v>
@@ -34074,16 +34074,16 @@
         <v>102.2572891192659</v>
       </c>
       <c r="R40" t="n">
-        <v>54.90875605079678</v>
+        <v>54.90875605079676</v>
       </c>
       <c r="S40" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T40" t="n">
-        <v>5.217775039198238</v>
+        <v>5.217775039198236</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06660989411742441</v>
+        <v>0.06660989411742439</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.722414432939954</v>
+        <v>2.722414432939953</v>
       </c>
       <c r="H41" t="n">
         <v>27.88092681134631</v>
@@ -34129,40 +34129,40 @@
         <v>104.9558824259177</v>
       </c>
       <c r="J41" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K41" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L41" t="n">
-        <v>429.6174156261722</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M41" t="n">
-        <v>478.0321532979681</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N41" t="n">
-        <v>485.7672133055588</v>
+        <v>485.7672133055586</v>
       </c>
       <c r="O41" t="n">
-        <v>458.6962047880121</v>
+        <v>458.6962047880119</v>
       </c>
       <c r="P41" t="n">
-        <v>391.4865984748069</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q41" t="n">
-        <v>293.9901315951447</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R41" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S41" t="n">
-        <v>62.03701889061927</v>
+        <v>62.03701889061925</v>
       </c>
       <c r="T41" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351962</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>1.456620137398015</v>
       </c>
       <c r="H42" t="n">
-        <v>14.06788395855452</v>
+        <v>14.06788395855451</v>
       </c>
       <c r="I42" t="n">
-        <v>50.15117578322115</v>
+        <v>50.15117578322113</v>
       </c>
       <c r="J42" t="n">
         <v>137.6186595600467</v>
@@ -34214,34 +34214,34 @@
         <v>235.2122087657137</v>
       </c>
       <c r="L42" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M42" t="n">
-        <v>369.0743216556286</v>
+        <v>369.0743216556285</v>
       </c>
       <c r="N42" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349337</v>
       </c>
       <c r="O42" t="n">
-        <v>346.5669850589041</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P42" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q42" t="n">
         <v>185.936282801894</v>
       </c>
       <c r="R42" t="n">
-        <v>90.43822221493997</v>
+        <v>90.43822221493994</v>
       </c>
       <c r="S42" t="n">
         <v>27.0560801836868</v>
       </c>
       <c r="T42" t="n">
-        <v>5.871201343284103</v>
+        <v>5.871201343284102</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09583027219723789</v>
+        <v>0.09583027219723786</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,28 +34281,28 @@
         <v>1.221181392152779</v>
       </c>
       <c r="H43" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I43" t="n">
-        <v>36.72425495673996</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J43" t="n">
-        <v>86.33752442520151</v>
+        <v>86.33752442520148</v>
       </c>
       <c r="K43" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701137</v>
       </c>
       <c r="L43" t="n">
         <v>181.5563680660596</v>
       </c>
       <c r="M43" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N43" t="n">
-        <v>186.8740579464341</v>
+        <v>186.874057946434</v>
       </c>
       <c r="O43" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P43" t="n">
         <v>147.6963385563688</v>
@@ -34311,16 +34311,16 @@
         <v>102.2572891192659</v>
       </c>
       <c r="R43" t="n">
-        <v>54.90875605079678</v>
+        <v>54.90875605079676</v>
       </c>
       <c r="S43" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T43" t="n">
-        <v>5.217775039198238</v>
+        <v>5.217775039198236</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06660989411742441</v>
+        <v>0.06660989411742439</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.722414432939954</v>
+        <v>2.722414432939953</v>
       </c>
       <c r="H44" t="n">
         <v>27.88092681134631</v>
@@ -34366,40 +34366,40 @@
         <v>104.9558824259177</v>
       </c>
       <c r="J44" t="n">
-        <v>231.0615219777377</v>
+        <v>231.0615219777376</v>
       </c>
       <c r="K44" t="n">
-        <v>346.301324924086</v>
+        <v>346.3013249240859</v>
       </c>
       <c r="L44" t="n">
-        <v>429.6174156261722</v>
+        <v>429.6174156261721</v>
       </c>
       <c r="M44" t="n">
-        <v>478.0321532979681</v>
+        <v>478.032153297968</v>
       </c>
       <c r="N44" t="n">
-        <v>485.7672133055588</v>
+        <v>485.7672133055586</v>
       </c>
       <c r="O44" t="n">
-        <v>458.6962047880121</v>
+        <v>458.6962047880119</v>
       </c>
       <c r="P44" t="n">
-        <v>391.4865984748069</v>
+        <v>391.4865984748068</v>
       </c>
       <c r="Q44" t="n">
-        <v>293.9901315951447</v>
+        <v>293.9901315951446</v>
       </c>
       <c r="R44" t="n">
-        <v>171.0118656231646</v>
+        <v>171.0118656231645</v>
       </c>
       <c r="S44" t="n">
-        <v>62.03701889061927</v>
+        <v>62.03701889061925</v>
       </c>
       <c r="T44" t="n">
-        <v>11.91736918019466</v>
+        <v>11.91736918019465</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2177931546351963</v>
+        <v>0.2177931546351962</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>1.456620137398015</v>
       </c>
       <c r="H45" t="n">
-        <v>14.06788395855452</v>
+        <v>14.06788395855451</v>
       </c>
       <c r="I45" t="n">
-        <v>50.15117578322115</v>
+        <v>50.15117578322113</v>
       </c>
       <c r="J45" t="n">
         <v>137.6186595600467</v>
@@ -34451,34 +34451,34 @@
         <v>235.2122087657137</v>
       </c>
       <c r="L45" t="n">
-        <v>316.2718416749507</v>
+        <v>316.2718416749506</v>
       </c>
       <c r="M45" t="n">
-        <v>369.0743216556286</v>
+        <v>369.0743216556285</v>
       </c>
       <c r="N45" t="n">
-        <v>378.8426207349339</v>
+        <v>378.8426207349337</v>
       </c>
       <c r="O45" t="n">
-        <v>346.5669850589041</v>
+        <v>346.566985058904</v>
       </c>
       <c r="P45" t="n">
-        <v>278.1505593948895</v>
+        <v>278.1505593948894</v>
       </c>
       <c r="Q45" t="n">
         <v>185.936282801894</v>
       </c>
       <c r="R45" t="n">
-        <v>90.43822221493997</v>
+        <v>90.43822221493994</v>
       </c>
       <c r="S45" t="n">
         <v>27.0560801836868</v>
       </c>
       <c r="T45" t="n">
-        <v>5.871201343284103</v>
+        <v>5.871201343284102</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09583027219723789</v>
+        <v>0.09583027219723786</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,28 +34518,28 @@
         <v>1.221181392152779</v>
       </c>
       <c r="H46" t="n">
-        <v>10.85741274114018</v>
+        <v>10.85741274114017</v>
       </c>
       <c r="I46" t="n">
-        <v>36.72425495673996</v>
+        <v>36.72425495673995</v>
       </c>
       <c r="J46" t="n">
-        <v>86.33752442520151</v>
+        <v>86.33752442520148</v>
       </c>
       <c r="K46" t="n">
-        <v>141.8790744701138</v>
+        <v>141.8790744701137</v>
       </c>
       <c r="L46" t="n">
         <v>181.5563680660596</v>
       </c>
       <c r="M46" t="n">
-        <v>191.425734044458</v>
+        <v>191.4257340444579</v>
       </c>
       <c r="N46" t="n">
-        <v>186.8740579464341</v>
+        <v>186.874057946434</v>
       </c>
       <c r="O46" t="n">
-        <v>172.6084389562857</v>
+        <v>172.6084389562856</v>
       </c>
       <c r="P46" t="n">
         <v>147.6963385563688</v>
@@ -34548,16 +34548,16 @@
         <v>102.2572891192659</v>
       </c>
       <c r="R46" t="n">
-        <v>54.90875605079678</v>
+        <v>54.90875605079676</v>
       </c>
       <c r="S46" t="n">
-        <v>21.28186117051707</v>
+        <v>21.28186117051706</v>
       </c>
       <c r="T46" t="n">
-        <v>5.217775039198238</v>
+        <v>5.217775039198236</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06660989411742441</v>
+        <v>0.06660989411742439</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01561745105138</v>
+        <v>50.0156174510513</v>
       </c>
       <c r="K11" t="n">
-        <v>126.2114738791054</v>
+        <v>126.2114738791053</v>
       </c>
       <c r="L11" t="n">
-        <v>193.851000656185</v>
+        <v>193.8510006561849</v>
       </c>
       <c r="M11" t="n">
-        <v>561.5460433727866</v>
+        <v>247.6859200706952</v>
       </c>
       <c r="N11" t="n">
-        <v>256.3541497089679</v>
+        <v>652.7360309041566</v>
       </c>
       <c r="O11" t="n">
-        <v>609.3981746290707</v>
+        <v>609.3981746290706</v>
       </c>
       <c r="P11" t="n">
-        <v>482.05231089102</v>
+        <v>482.0523108910199</v>
       </c>
       <c r="Q11" t="n">
-        <v>283.9994323805999</v>
+        <v>201.4776744875033</v>
       </c>
       <c r="R11" t="n">
-        <v>21.14274768201489</v>
+        <v>21.14274768201483</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10.78103289338003</v>
+        <v>10.78103289338</v>
       </c>
       <c r="K12" t="n">
-        <v>97.37076979135475</v>
+        <v>97.37076979135469</v>
       </c>
       <c r="L12" t="n">
-        <v>177.7174618950765</v>
+        <v>177.7174618950764</v>
       </c>
       <c r="M12" t="n">
-        <v>329.4618782034267</v>
+        <v>652.7360309041566</v>
       </c>
       <c r="N12" t="n">
-        <v>652.7360309041566</v>
+        <v>329.4618782034272</v>
       </c>
       <c r="O12" t="n">
         <v>597.8330598911891</v>
       </c>
       <c r="P12" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204963</v>
       </c>
       <c r="Q12" t="n">
         <v>256.0317964517216</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.80410564421013</v>
+        <v>52.80410564421007</v>
       </c>
       <c r="K13" t="n">
         <v>179.4353439799123</v>
       </c>
       <c r="L13" t="n">
-        <v>268.9721546620572</v>
+        <v>268.9721546620571</v>
       </c>
       <c r="M13" t="n">
-        <v>290.8353723419799</v>
+        <v>290.8353723419798</v>
       </c>
       <c r="N13" t="n">
-        <v>290.8319916613441</v>
+        <v>290.831991661344</v>
       </c>
       <c r="O13" t="n">
         <v>257.0193282060067</v>
       </c>
       <c r="P13" t="n">
-        <v>204.8006591569437</v>
+        <v>204.8006591569436</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.92100720325294</v>
+        <v>75.92100720325288</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01561745105138</v>
+        <v>50.0156174510513</v>
       </c>
       <c r="K14" t="n">
-        <v>126.2114738791054</v>
+        <v>126.2114738791053</v>
       </c>
       <c r="L14" t="n">
-        <v>193.851000656185</v>
+        <v>611.5122152066353</v>
       </c>
       <c r="M14" t="n">
-        <v>247.6859200706953</v>
+        <v>652.7360309041566</v>
       </c>
       <c r="N14" t="n">
-        <v>570.214273011059</v>
+        <v>256.3541497089677</v>
       </c>
       <c r="O14" t="n">
-        <v>609.3981746290707</v>
+        <v>228.5979933663252</v>
       </c>
       <c r="P14" t="n">
-        <v>482.05231089102</v>
+        <v>354.0012900719453</v>
       </c>
       <c r="Q14" t="n">
-        <v>283.9994323805999</v>
+        <v>283.9994323805998</v>
       </c>
       <c r="R14" t="n">
-        <v>21.14274768201489</v>
+        <v>21.14274768201483</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10.78103289338003</v>
+        <v>10.78103289338</v>
       </c>
       <c r="K15" t="n">
-        <v>97.37076979135475</v>
+        <v>97.37076979135469</v>
       </c>
       <c r="L15" t="n">
-        <v>177.7174618950765</v>
+        <v>177.7174618950764</v>
       </c>
       <c r="M15" t="n">
+        <v>329.4618782034277</v>
+      </c>
+      <c r="N15" t="n">
         <v>652.7360309041566</v>
-      </c>
-      <c r="N15" t="n">
-        <v>329.4618782034272</v>
       </c>
       <c r="O15" t="n">
         <v>597.8330598911891</v>
       </c>
       <c r="P15" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204963</v>
       </c>
       <c r="Q15" t="n">
         <v>256.0317964517216</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.80410564421013</v>
+        <v>52.80410564421007</v>
       </c>
       <c r="K16" t="n">
         <v>179.4353439799123</v>
       </c>
       <c r="L16" t="n">
-        <v>268.9721546620572</v>
+        <v>268.9721546620571</v>
       </c>
       <c r="M16" t="n">
-        <v>290.8353723419799</v>
+        <v>290.8353723419798</v>
       </c>
       <c r="N16" t="n">
-        <v>290.8319916613441</v>
+        <v>290.831991661344</v>
       </c>
       <c r="O16" t="n">
         <v>257.0193282060067</v>
       </c>
       <c r="P16" t="n">
-        <v>204.8006591569437</v>
+        <v>204.8006591569436</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.92100720325294</v>
+        <v>75.92100720325288</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01561745105138</v>
+        <v>50.0156174510513</v>
       </c>
       <c r="K17" t="n">
-        <v>126.2114738791054</v>
+        <v>126.2114738791053</v>
       </c>
       <c r="L17" t="n">
-        <v>604.3092476843932</v>
+        <v>611.5122152066353</v>
       </c>
       <c r="M17" t="n">
-        <v>693.5686495948953</v>
+        <v>517.880491469815</v>
       </c>
       <c r="N17" t="n">
-        <v>256.3541497089679</v>
+        <v>256.3541497089677</v>
       </c>
       <c r="O17" t="n">
-        <v>228.5979933663254</v>
+        <v>609.3981746290706</v>
       </c>
       <c r="P17" t="n">
-        <v>482.05231089102</v>
+        <v>482.0523108910199</v>
       </c>
       <c r="Q17" t="n">
-        <v>283.9994323805999</v>
+        <v>71.68444172069511</v>
       </c>
       <c r="R17" t="n">
-        <v>21.14274768201489</v>
+        <v>21.14274768201483</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.78103289338003</v>
+        <v>10.78103289338</v>
       </c>
       <c r="K18" t="n">
-        <v>97.37076979135475</v>
+        <v>97.37076979135469</v>
       </c>
       <c r="L18" t="n">
-        <v>177.7174618950765</v>
+        <v>177.7174618950764</v>
       </c>
       <c r="M18" t="n">
-        <v>288.6292595126877</v>
+        <v>288.6292595126885</v>
       </c>
       <c r="N18" t="n">
-        <v>693.5686495948953</v>
+        <v>693.5686495948958</v>
       </c>
       <c r="O18" t="n">
         <v>597.8330598911891</v>
       </c>
       <c r="P18" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204963</v>
       </c>
       <c r="Q18" t="n">
         <v>256.0317964517216</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>119.609582644231</v>
+        <v>119.6095826442309</v>
       </c>
       <c r="L19" t="n">
-        <v>209.1463933263758</v>
+        <v>209.1463933263757</v>
       </c>
       <c r="M19" t="n">
         <v>231.0096110062985</v>
       </c>
       <c r="N19" t="n">
-        <v>231.0062303256627</v>
+        <v>231.0062303256626</v>
       </c>
       <c r="O19" t="n">
         <v>197.1935668703253</v>
@@ -36060,7 +36060,7 @@
         <v>144.9748978212623</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.09524586757155</v>
+        <v>16.09524586757152</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01561745105138</v>
+        <v>219.1122326231251</v>
       </c>
       <c r="K20" t="n">
-        <v>126.2114738791054</v>
+        <v>450.3568864502701</v>
       </c>
       <c r="L20" t="n">
-        <v>193.851000656185</v>
+        <v>193.8510006561849</v>
       </c>
       <c r="M20" t="n">
-        <v>286.0122154744307</v>
+        <v>693.5686495948958</v>
       </c>
       <c r="N20" t="n">
-        <v>693.5686495948953</v>
+        <v>256.3541497089677</v>
       </c>
       <c r="O20" t="n">
-        <v>609.3981746290707</v>
+        <v>609.3981746290706</v>
       </c>
       <c r="P20" t="n">
-        <v>482.05231089102</v>
+        <v>251.926087255166</v>
       </c>
       <c r="Q20" t="n">
-        <v>283.9994323805999</v>
+        <v>71.68444172069511</v>
       </c>
       <c r="R20" t="n">
-        <v>21.14274768201489</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10.78103289338003</v>
+        <v>10.78103289338</v>
       </c>
       <c r="K21" t="n">
-        <v>97.37076979135475</v>
+        <v>97.37076979135469</v>
       </c>
       <c r="L21" t="n">
-        <v>177.7174618950765</v>
+        <v>177.7174618950764</v>
       </c>
       <c r="M21" t="n">
-        <v>288.6292595126877</v>
+        <v>288.6292595126885</v>
       </c>
       <c r="N21" t="n">
-        <v>693.5686495948953</v>
+        <v>693.5686495948958</v>
       </c>
       <c r="O21" t="n">
         <v>597.8330598911891</v>
       </c>
       <c r="P21" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204963</v>
       </c>
       <c r="Q21" t="n">
         <v>256.0317964517216</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>119.609582644231</v>
+        <v>119.6095826442309</v>
       </c>
       <c r="L22" t="n">
-        <v>209.1463933263758</v>
+        <v>209.1463933263757</v>
       </c>
       <c r="M22" t="n">
         <v>231.0096110062985</v>
       </c>
       <c r="N22" t="n">
-        <v>231.0062303256627</v>
+        <v>231.0062303256626</v>
       </c>
       <c r="O22" t="n">
         <v>197.1935668703253</v>
@@ -36297,7 +36297,7 @@
         <v>144.9748978212623</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.09524586757155</v>
+        <v>16.09524586757152</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01561745105138</v>
+        <v>50.0156174510513</v>
       </c>
       <c r="K23" t="n">
-        <v>126.2114738791054</v>
+        <v>450.3568864502701</v>
       </c>
       <c r="L23" t="n">
-        <v>193.851000656185</v>
+        <v>193.8510006561849</v>
       </c>
       <c r="M23" t="n">
-        <v>286.0122154744317</v>
+        <v>693.5686495948956</v>
       </c>
       <c r="N23" t="n">
-        <v>693.5686495948956</v>
+        <v>256.3541497089677</v>
       </c>
       <c r="O23" t="n">
-        <v>609.3981746290707</v>
+        <v>609.3981746290706</v>
       </c>
       <c r="P23" t="n">
-        <v>482.05231089102</v>
+        <v>421.0227024272397</v>
       </c>
       <c r="Q23" t="n">
-        <v>283.9994323805999</v>
+        <v>71.68444172069511</v>
       </c>
       <c r="R23" t="n">
-        <v>21.14274768201489</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>10.78103289338003</v>
+        <v>136.8720682337888</v>
       </c>
       <c r="K24" t="n">
-        <v>159.0597415704317</v>
+        <v>97.37076979135469</v>
       </c>
       <c r="L24" t="n">
-        <v>177.7174618950765</v>
+        <v>548.5578071985356</v>
       </c>
       <c r="M24" t="n">
-        <v>226.9402877336103</v>
+        <v>692.6453514836101</v>
       </c>
       <c r="N24" t="n">
-        <v>693.5686495948956</v>
+        <v>247.5009086516004</v>
       </c>
       <c r="O24" t="n">
-        <v>597.8330598911891</v>
+        <v>353.0306159555427</v>
       </c>
       <c r="P24" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204963</v>
       </c>
       <c r="Q24" t="n">
-        <v>256.0317964517216</v>
+        <v>45.95450871587246</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>119.609582644231</v>
+        <v>119.6095826442309</v>
       </c>
       <c r="L25" t="n">
-        <v>209.1463933263758</v>
+        <v>209.1463933263757</v>
       </c>
       <c r="M25" t="n">
         <v>231.0096110062985</v>
       </c>
       <c r="N25" t="n">
-        <v>231.0062303256627</v>
+        <v>231.0062303256626</v>
       </c>
       <c r="O25" t="n">
         <v>197.1935668703253</v>
@@ -36534,7 +36534,7 @@
         <v>144.9748978212623</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.09524586757155</v>
+        <v>16.09524586757152</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>50.01561745105141</v>
+        <v>219.1122326231251</v>
       </c>
       <c r="K26" t="n">
-        <v>177.1968646783739</v>
+        <v>450.3568864502701</v>
       </c>
       <c r="L26" t="n">
-        <v>611.5122152066355</v>
+        <v>611.5122152066353</v>
       </c>
       <c r="M26" t="n">
-        <v>697.199453563528</v>
+        <v>697.1994535635278</v>
       </c>
       <c r="N26" t="n">
-        <v>693.7010741209522</v>
+        <v>484.9021755189029</v>
       </c>
       <c r="O26" t="n">
-        <v>609.3981746290708</v>
+        <v>609.3981746290706</v>
       </c>
       <c r="P26" t="n">
-        <v>482.0523108910201</v>
+        <v>482.0523108910199</v>
       </c>
       <c r="Q26" t="n">
-        <v>283.9994323806</v>
+        <v>71.68444172069516</v>
       </c>
       <c r="R26" t="n">
-        <v>21.14274768201491</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>10.78103289338006</v>
+        <v>136.8720682337888</v>
       </c>
       <c r="K27" t="n">
-        <v>97.3707697913548</v>
+        <v>361.8360068039333</v>
       </c>
       <c r="L27" t="n">
-        <v>177.7174618950766</v>
+        <v>177.7174618950764</v>
       </c>
       <c r="M27" t="n">
-        <v>255.3546261124288</v>
+        <v>577.1234416761089</v>
       </c>
       <c r="N27" t="n">
-        <v>726.8432829951541</v>
+        <v>726.843282995154</v>
       </c>
       <c r="O27" t="n">
-        <v>597.8330598911892</v>
+        <v>203.9707406144596</v>
       </c>
       <c r="P27" t="n">
-        <v>462.6389206204964</v>
+        <v>144.1761519805592</v>
       </c>
       <c r="Q27" t="n">
-        <v>256.0317964517217</v>
+        <v>256.0317964517216</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.60407092018481</v>
+        <v>73.60407092018478</v>
       </c>
       <c r="K28" t="n">
         <v>200.235309255887</v>
       </c>
       <c r="L28" t="n">
-        <v>289.7721199380319</v>
+        <v>289.7721199380318</v>
       </c>
       <c r="M28" t="n">
         <v>311.6353376179546</v>
       </c>
       <c r="N28" t="n">
-        <v>311.6319569373188</v>
+        <v>311.6319569373187</v>
       </c>
       <c r="O28" t="n">
         <v>277.8192934819814</v>
@@ -36771,7 +36771,7 @@
         <v>225.6006244329184</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.72097247922763</v>
+        <v>96.7209724792276</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>50.01561745105138</v>
+        <v>50.0156174510513</v>
       </c>
       <c r="K29" t="n">
-        <v>450.3568864502702</v>
+        <v>450.3568864502701</v>
       </c>
       <c r="L29" t="n">
-        <v>338.3521934347397</v>
+        <v>611.5122152066353</v>
       </c>
       <c r="M29" t="n">
-        <v>697.1994535635279</v>
+        <v>697.1994535635278</v>
       </c>
       <c r="N29" t="n">
-        <v>693.7010741209521</v>
+        <v>693.7010741209519</v>
       </c>
       <c r="O29" t="n">
-        <v>609.3981746290707</v>
+        <v>609.3981746290706</v>
       </c>
       <c r="P29" t="n">
-        <v>482.05231089102</v>
+        <v>421.2072797790301</v>
       </c>
       <c r="Q29" t="n">
-        <v>283.9994323805999</v>
+        <v>71.68444172069511</v>
       </c>
       <c r="R29" t="n">
-        <v>21.14274768201489</v>
+        <v>21.14274768201483</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10.78103289338003</v>
+        <v>136.8720682337888</v>
       </c>
       <c r="K30" t="n">
-        <v>97.37076979135475</v>
+        <v>361.8360068039333</v>
       </c>
       <c r="L30" t="n">
-        <v>177.7174618950765</v>
+        <v>177.7174618950764</v>
       </c>
       <c r="M30" t="n">
-        <v>255.3546261124294</v>
+        <v>692.6453514836101</v>
       </c>
       <c r="N30" t="n">
-        <v>726.8432829951541</v>
+        <v>292.8586045477161</v>
       </c>
       <c r="O30" t="n">
-        <v>597.8330598911891</v>
+        <v>203.9707406144595</v>
       </c>
       <c r="P30" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204963</v>
       </c>
       <c r="Q30" t="n">
         <v>256.0317964517216</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.6040709201848</v>
+        <v>73.60407092018477</v>
       </c>
       <c r="K31" t="n">
         <v>200.235309255887</v>
@@ -36996,19 +36996,19 @@
         <v>289.7721199380318</v>
       </c>
       <c r="M31" t="n">
-        <v>311.6353376179546</v>
+        <v>311.6353376179545</v>
       </c>
       <c r="N31" t="n">
-        <v>311.6319569373188</v>
+        <v>311.6319569373187</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8192934819814</v>
+        <v>277.8192934819813</v>
       </c>
       <c r="P31" t="n">
-        <v>225.6006244329184</v>
+        <v>225.6006244329183</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.72097247922761</v>
+        <v>96.72097247922758</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>101.0010082503195</v>
+        <v>101.0010082503218</v>
       </c>
       <c r="K32" t="n">
-        <v>126.2114738791054</v>
+        <v>126.2114738791053</v>
       </c>
       <c r="L32" t="n">
         <v>611.5122152066353</v>
       </c>
       <c r="M32" t="n">
-        <v>697.1994535635279</v>
+        <v>697.1994535635278</v>
       </c>
       <c r="N32" t="n">
-        <v>693.7010741209521</v>
+        <v>693.7010741209519</v>
       </c>
       <c r="O32" t="n">
-        <v>609.3981746290707</v>
+        <v>609.3981746290706</v>
       </c>
       <c r="P32" t="n">
-        <v>482.05231089102</v>
+        <v>482.0523108910199</v>
       </c>
       <c r="Q32" t="n">
-        <v>283.9994323805999</v>
+        <v>283.9994323805998</v>
       </c>
       <c r="R32" t="n">
-        <v>21.14274768201489</v>
+        <v>21.14274768201483</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>10.78103289338003</v>
+        <v>10.78103289338</v>
       </c>
       <c r="K33" t="n">
-        <v>97.37076979135475</v>
+        <v>361.8360068039333</v>
       </c>
       <c r="L33" t="n">
-        <v>177.7174618950765</v>
+        <v>177.7174618950764</v>
       </c>
       <c r="M33" t="n">
-        <v>255.3546261124294</v>
+        <v>692.6453514836101</v>
       </c>
       <c r="N33" t="n">
-        <v>726.8432829951541</v>
+        <v>553.6273769871815</v>
       </c>
       <c r="O33" t="n">
         <v>597.8330598911891</v>
       </c>
       <c r="P33" t="n">
-        <v>462.6389206204964</v>
+        <v>144.1761519805592</v>
       </c>
       <c r="Q33" t="n">
-        <v>256.0317964517216</v>
+        <v>45.95450871587246</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.60407092018478</v>
+        <v>73.60407092018477</v>
       </c>
       <c r="K34" t="n">
         <v>200.235309255887</v>
@@ -37233,19 +37233,19 @@
         <v>289.7721199380318</v>
       </c>
       <c r="M34" t="n">
-        <v>311.6353376179546</v>
+        <v>311.6353376179545</v>
       </c>
       <c r="N34" t="n">
-        <v>311.6319569373188</v>
+        <v>311.6319569373187</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8192934819814</v>
+        <v>277.8192934819813</v>
       </c>
       <c r="P34" t="n">
-        <v>225.6006244329184</v>
+        <v>225.6006244329183</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.7209724792276</v>
+        <v>96.72097247922758</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>50.01561745105138</v>
+        <v>219.1122326231251</v>
       </c>
       <c r="K35" t="n">
-        <v>177.1968646783744</v>
+        <v>450.3568864502701</v>
       </c>
       <c r="L35" t="n">
-        <v>611.5122152066353</v>
+        <v>606.6025026746515</v>
       </c>
       <c r="M35" t="n">
-        <v>697.1994535635279</v>
+        <v>697.1994535635278</v>
       </c>
       <c r="N35" t="n">
-        <v>693.7010741209521</v>
+        <v>256.3541497089677</v>
       </c>
       <c r="O35" t="n">
-        <v>609.3981746290707</v>
+        <v>609.3981746290706</v>
       </c>
       <c r="P35" t="n">
-        <v>482.05231089102</v>
+        <v>482.0523108910199</v>
       </c>
       <c r="Q35" t="n">
-        <v>283.9994323805999</v>
+        <v>283.9994323805998</v>
       </c>
       <c r="R35" t="n">
-        <v>21.14274768201489</v>
+        <v>21.14274768201483</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>10.78103289338003</v>
+        <v>136.8720682337888</v>
       </c>
       <c r="K36" t="n">
-        <v>97.37076979135475</v>
+        <v>171.0310944956462</v>
       </c>
       <c r="L36" t="n">
-        <v>177.7174618950765</v>
+        <v>548.5578071985356</v>
       </c>
       <c r="M36" t="n">
-        <v>255.3546261124294</v>
+        <v>692.6453514836101</v>
       </c>
       <c r="N36" t="n">
-        <v>726.8432829951541</v>
+        <v>247.5009086516004</v>
       </c>
       <c r="O36" t="n">
         <v>597.8330598911891</v>
       </c>
       <c r="P36" t="n">
-        <v>462.6389206204964</v>
+        <v>144.1761519805592</v>
       </c>
       <c r="Q36" t="n">
-        <v>256.0317964517216</v>
+        <v>45.95450871587246</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.6040709201848</v>
+        <v>73.60407092018478</v>
       </c>
       <c r="K37" t="n">
         <v>200.235309255887</v>
@@ -37470,19 +37470,19 @@
         <v>289.7721199380318</v>
       </c>
       <c r="M37" t="n">
-        <v>311.6353376179546</v>
+        <v>311.6353376179545</v>
       </c>
       <c r="N37" t="n">
-        <v>311.6319569373188</v>
+        <v>311.6319569373187</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8192934819814</v>
+        <v>277.8192934819813</v>
       </c>
       <c r="P37" t="n">
-        <v>225.6006244329184</v>
+        <v>225.6006244329183</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.72097247922761</v>
+        <v>96.7209724792276</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01561745105138</v>
+        <v>219.1122326231251</v>
       </c>
       <c r="K38" t="n">
-        <v>177.1968646783754</v>
+        <v>241.5579878482213</v>
       </c>
       <c r="L38" t="n">
         <v>611.5122152066353</v>
       </c>
       <c r="M38" t="n">
-        <v>697.1994535635279</v>
+        <v>697.1994535635278</v>
       </c>
       <c r="N38" t="n">
-        <v>693.7010741209521</v>
+        <v>693.7010741209519</v>
       </c>
       <c r="O38" t="n">
-        <v>609.3981746290707</v>
+        <v>609.3981746290706</v>
       </c>
       <c r="P38" t="n">
-        <v>482.05231089102</v>
+        <v>482.0523108910199</v>
       </c>
       <c r="Q38" t="n">
-        <v>283.9994323805999</v>
+        <v>71.68444172069511</v>
       </c>
       <c r="R38" t="n">
-        <v>21.14274768201489</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>10.78103289338003</v>
+        <v>10.78103289338</v>
       </c>
       <c r="K39" t="n">
-        <v>97.37076979135475</v>
+        <v>361.8360068039333</v>
       </c>
       <c r="L39" t="n">
-        <v>177.7174618950765</v>
+        <v>483.8439302306573</v>
       </c>
       <c r="M39" t="n">
-        <v>255.3546261124294</v>
+        <v>692.6453514836101</v>
       </c>
       <c r="N39" t="n">
-        <v>726.8432829951541</v>
+        <v>247.5009086516004</v>
       </c>
       <c r="O39" t="n">
         <v>597.8330598911891</v>
       </c>
       <c r="P39" t="n">
-        <v>462.6389206204964</v>
+        <v>144.1761519805592</v>
       </c>
       <c r="Q39" t="n">
-        <v>256.0317964517216</v>
+        <v>45.95450871587246</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.60407092018477</v>
+        <v>73.60407092018478</v>
       </c>
       <c r="K40" t="n">
         <v>200.235309255887</v>
@@ -37707,19 +37707,19 @@
         <v>289.7721199380318</v>
       </c>
       <c r="M40" t="n">
-        <v>311.6353376179546</v>
+        <v>311.6353376179545</v>
       </c>
       <c r="N40" t="n">
         <v>311.6319569373187</v>
       </c>
       <c r="O40" t="n">
-        <v>277.8192934819814</v>
+        <v>277.8192934819813</v>
       </c>
       <c r="P40" t="n">
-        <v>225.6006244329184</v>
+        <v>225.6006244329183</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.72097247922758</v>
+        <v>96.7209724792276</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>50.01561745105138</v>
+        <v>50.0156174510513</v>
       </c>
       <c r="K41" t="n">
-        <v>450.3568864502702</v>
+        <v>177.1968646783758</v>
       </c>
       <c r="L41" t="n">
-        <v>338.3521934347397</v>
+        <v>611.5122152066353</v>
       </c>
       <c r="M41" t="n">
-        <v>697.1994535635279</v>
+        <v>697.1994535635278</v>
       </c>
       <c r="N41" t="n">
-        <v>693.7010741209521</v>
+        <v>693.7010741209519</v>
       </c>
       <c r="O41" t="n">
-        <v>609.3981746290707</v>
+        <v>609.3981746290706</v>
       </c>
       <c r="P41" t="n">
-        <v>482.05231089102</v>
+        <v>482.0523108910199</v>
       </c>
       <c r="Q41" t="n">
-        <v>283.9994323805999</v>
+        <v>283.9994323805998</v>
       </c>
       <c r="R41" t="n">
-        <v>21.14274768201489</v>
+        <v>21.14274768201483</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>10.78103289338003</v>
+        <v>10.78103289338</v>
       </c>
       <c r="K42" t="n">
-        <v>97.37076979135475</v>
+        <v>361.8360068039333</v>
       </c>
       <c r="L42" t="n">
-        <v>177.7174618950765</v>
+        <v>177.7174618950764</v>
       </c>
       <c r="M42" t="n">
-        <v>255.3546261124294</v>
+        <v>680.3090511792539</v>
       </c>
       <c r="N42" t="n">
-        <v>726.8432829951541</v>
+        <v>247.5009086516004</v>
       </c>
       <c r="O42" t="n">
         <v>597.8330598911891</v>
       </c>
       <c r="P42" t="n">
-        <v>462.6389206204964</v>
+        <v>462.6389206204963</v>
       </c>
       <c r="Q42" t="n">
-        <v>256.0317964517216</v>
+        <v>45.95450871587246</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,16 +37944,16 @@
         <v>289.7721199380318</v>
       </c>
       <c r="M43" t="n">
-        <v>311.6353376179546</v>
+        <v>311.6353376179545</v>
       </c>
       <c r="N43" t="n">
-        <v>311.6319569373188</v>
+        <v>311.6319569373187</v>
       </c>
       <c r="O43" t="n">
-        <v>277.8192934819814</v>
+        <v>277.8192934819813</v>
       </c>
       <c r="P43" t="n">
-        <v>225.6006244329184</v>
+        <v>225.6006244329182</v>
       </c>
       <c r="Q43" t="n">
         <v>96.7209724792276</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.01561745105138</v>
+        <v>219.1122326231251</v>
       </c>
       <c r="K44" t="n">
-        <v>177.1968646783744</v>
+        <v>450.3568864502701</v>
       </c>
       <c r="L44" t="n">
-        <v>611.5122152066353</v>
+        <v>193.8510006561849</v>
       </c>
       <c r="M44" t="n">
-        <v>697.1994535635279</v>
+        <v>672.6040311700103</v>
       </c>
       <c r="N44" t="n">
-        <v>693.7010741209521</v>
+        <v>693.7010741209519</v>
       </c>
       <c r="O44" t="n">
-        <v>609.3981746290707</v>
+        <v>609.3981746290706</v>
       </c>
       <c r="P44" t="n">
-        <v>482.05231089102</v>
+        <v>482.0523108910199</v>
       </c>
       <c r="Q44" t="n">
-        <v>283.9994323805999</v>
+        <v>283.9994323805998</v>
       </c>
       <c r="R44" t="n">
-        <v>21.14274768201489</v>
+        <v>21.14274768201483</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>10.78103289338003</v>
+        <v>136.8720682337888</v>
       </c>
       <c r="K45" t="n">
-        <v>97.37076979135475</v>
+        <v>361.8360068039333</v>
       </c>
       <c r="L45" t="n">
-        <v>177.7174618950765</v>
+        <v>177.7174618950764</v>
       </c>
       <c r="M45" t="n">
-        <v>255.3546261124294</v>
+        <v>692.6453514836101</v>
       </c>
       <c r="N45" t="n">
-        <v>726.8432829951541</v>
+        <v>247.5009086516004</v>
       </c>
       <c r="O45" t="n">
         <v>597.8330598911891</v>
       </c>
       <c r="P45" t="n">
-        <v>462.6389206204964</v>
+        <v>144.1761519805592</v>
       </c>
       <c r="Q45" t="n">
-        <v>256.0317964517216</v>
+        <v>225.9899417110443</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.60407092018487</v>
+        <v>73.60407092018484</v>
       </c>
       <c r="K46" t="n">
-        <v>200.2353092558871</v>
+        <v>200.235309255887</v>
       </c>
       <c r="L46" t="n">
-        <v>289.7721199380299</v>
+        <v>289.7721199380318</v>
       </c>
       <c r="M46" t="n">
-        <v>311.6353376179547</v>
+        <v>311.6353376179546</v>
       </c>
       <c r="N46" t="n">
         <v>311.6319569373188</v>
@@ -38190,10 +38190,10 @@
         <v>277.8192934819814</v>
       </c>
       <c r="P46" t="n">
-        <v>225.6006244329184</v>
+        <v>225.6006244329168</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.72097247922768</v>
+        <v>96.72097247922765</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
